--- a/袜子流水表V2.xlsx
+++ b/袜子流水表V2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujiayu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujiayu/Documents/GitHub/learngit/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="-220" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="放袜子流水表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="姓名列表" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$59</definedName>
     <definedName name="姓名辅助">姓名列表!$B$2:$B$35</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="150">
   <si>
     <t>总金额</t>
   </si>
@@ -458,10 +458,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>00657069</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>0657070</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -519,10 +515,75 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>灰蓝</t>
+    <t>紫兰</t>
     <rPh sb="0" eb="1">
-      <t>hui'lan</t>
+      <t>zi'lan</t>
     </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>像红</t>
+    <rPh sb="0" eb="1">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hong</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00368613</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>范卫群</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657071</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657069</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00368614</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪阿娟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00368615</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00368616</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如芬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018 11.9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤利仙</t>
+  </si>
+  <si>
+    <t>李腊春</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -928,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J834"/>
+  <dimension ref="A1:J835"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -955,21 +1016,21 @@
       </c>
       <c r="B1" s="8">
         <f>SUBTOTAL(9,J:J)</f>
-        <v>4127.3</v>
+        <v>4867.0999999999995</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8">
         <f>SUBTOTAL(9,H:H)</f>
-        <v>7333</v>
+        <v>8628</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8">
         <f>SUBTOTAL(9,E:E)</f>
-        <v>14395</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
@@ -1103,7 +1164,7 @@
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" s="13">
         <v>379</v>
@@ -1324,10 +1385,18 @@
         <v>390</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="G14" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="13">
+        <v>378</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>144</v>
+      </c>
       <c r="J14" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B14,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H14="",0,H14)),1)</f>
-        <v>0</v>
+        <v>207.9</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1406,13 +1475,13 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H17" s="13">
         <v>200</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J17" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B17,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H17="",0,H17)),1)</f>
@@ -1829,10 +1898,16 @@
         <v>300</v>
       </c>
       <c r="F32" s="18"/>
+      <c r="G32" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="13">
+        <v>300</v>
+      </c>
       <c r="I32" s="18"/>
       <c r="J32" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B32,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H32="",0,H32)),1)</f>
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1970,10 +2045,18 @@
         <v>293</v>
       </c>
       <c r="F37" s="18"/>
-      <c r="I37" s="18"/>
+      <c r="G37" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="13">
+        <v>292</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>136</v>
+      </c>
       <c r="J37" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B37,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H37="",0,H37)),1)</f>
-        <v>0</v>
+        <v>178.1</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2076,10 +2159,18 @@
         <v>160</v>
       </c>
       <c r="F41" s="18"/>
-      <c r="I41" s="18"/>
+      <c r="G41" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="13">
+        <v>160</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>145</v>
+      </c>
       <c r="J41" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B41,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H41="",0,H41)),1)</f>
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2124,10 +2215,18 @@
       <c r="F43" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="I43" s="18"/>
+      <c r="G43" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" s="13">
+        <v>155</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="J43" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B43,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H43="",0,H43)),1)</f>
-        <v>0</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2244,13 +2343,13 @@
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H48" s="13">
         <v>369</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J48" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B48,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H48="",0,H48)),1)</f>
@@ -2352,7 +2451,7 @@
         <v>360</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="12">
@@ -2362,7 +2461,7 @@
     </row>
     <row r="53" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" s="13">
         <v>14</v>
@@ -2371,19 +2470,23 @@
         <v>118</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" s="13">
         <v>500</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I53" s="18"/>
+      <c r="J53" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B53,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H53="",0,H53)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" s="13">
         <v>15</v>
@@ -2392,39 +2495,173 @@
         <v>100</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E54" s="13">
         <v>358</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I54" s="18"/>
+      <c r="J54" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B54,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H54="",0,H54)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F55" s="18"/>
+      <c r="A55" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="13">
+        <v>11</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="13">
+        <v>395</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="I55" s="18"/>
+      <c r="J55" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B55,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H55="",0,H55)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F56" s="18"/>
+      <c r="A56" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="13">
+        <v>11</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="13">
+        <v>200</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="I56" s="18"/>
+      <c r="J56" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B56,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H56="",0,H56)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F57" s="18"/>
+      <c r="A57" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="13">
+        <v>12</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="13">
+        <v>200</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="I57" s="18"/>
+      <c r="J57" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B57,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H57="",0,H57)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F58" s="18"/>
+      <c r="A58" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="13">
+        <v>11</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="13">
+        <v>150</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="I58" s="18"/>
+      <c r="J58" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B58,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H58="",0,H58)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="13">
+        <v>16</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="13">
+        <v>10</v>
+      </c>
       <c r="F59" s="18"/>
+      <c r="G59" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" s="13">
+        <v>10</v>
+      </c>
       <c r="I59" s="18"/>
+      <c r="J59" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B59,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H59="",0,H59)),1)</f>
+        <v>6.3</v>
+      </c>
     </row>
     <row r="60" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F60" s="18"/>
+      <c r="A60" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="13">
+        <v>13</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="13">
+        <v>50</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>130</v>
+      </c>
       <c r="I60" s="18"/>
+      <c r="J60" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B60,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H60="",0,H60)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F61" s="18"/>
@@ -5522,8 +5759,12 @@
       <c r="F834" s="18"/>
       <c r="I834" s="18"/>
     </row>
+    <row r="835" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F835" s="18"/>
+      <c r="I835" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:J54"/>
+  <autoFilter ref="A2:J59"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B2"/>
@@ -5544,8 +5785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5632,7 +5873,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2">
         <v>15</v>
@@ -5664,7 +5905,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2">
         <v>400</v>
@@ -5672,10 +5913,10 @@
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2">
         <v>12</v>
@@ -5723,7 +5964,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="2">
         <v>430</v>
@@ -5732,16 +5973,16 @@
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2">
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="2">
         <v>395</v>
@@ -5754,7 +5995,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2">
         <v>384</v>
@@ -7413,10 +7654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7744,6 +7985,24 @@
         <v/>
       </c>
     </row>
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f t="array" aca="1" ref="B37" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A36)))&amp;""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f t="array" aca="1" ref="B38" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A37)))&amp;""</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/袜子流水表V2.xlsx
+++ b/袜子流水表V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-220" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="放袜子流水表" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="152">
   <si>
     <t>总金额</t>
   </si>
@@ -584,6 +584,13 @@
   </si>
   <si>
     <t>李腊春</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李腊春</t>
+  </si>
+  <si>
+    <t>2018.11.10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -992,7 +999,7 @@
   <dimension ref="A1:J835"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1037,7 @@
       </c>
       <c r="F1" s="8">
         <f>SUBTOTAL(9,E:E)</f>
-        <v>15400</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
@@ -2664,7 +2671,24 @@
       </c>
     </row>
     <row r="61" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F61" s="18"/>
+      <c r="A61" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="13">
+        <v>12</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="13">
+        <v>100</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="I61" s="18"/>
     </row>
     <row r="62" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -7676,7 +7700,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f t="array" aca="1" ref="B2" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A1)))&amp;""</f>
-        <v/>
+        <v>许利月</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -7685,7 +7709,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f t="array" aca="1" ref="B3" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A2)))&amp;""</f>
-        <v/>
+        <v xml:space="preserve">王玲芬 </v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -7694,7 +7718,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="array" aca="1" ref="B4" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A3)))&amp;""</f>
-        <v/>
+        <v>常金美</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -7703,7 +7727,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f t="array" aca="1" ref="B5" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A4)))&amp;""</f>
-        <v/>
+        <v>周付仙</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -7712,7 +7736,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f t="array" aca="1" ref="B6" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A5)))&amp;""</f>
-        <v/>
+        <v>於方明</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -7721,7 +7745,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f t="array" aca="1" ref="B7" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A6)))&amp;""</f>
-        <v/>
+        <v>宓金仙</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -7730,7 +7754,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f t="array" aca="1" ref="B8" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A7)))&amp;""</f>
-        <v/>
+        <v>圣方</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -7739,7 +7763,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f t="array" aca="1" ref="B9" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A8)))&amp;""</f>
-        <v/>
+        <v>徐美仙</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -7748,7 +7772,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f t="array" aca="1" ref="B10" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A9)))&amp;""</f>
-        <v/>
+        <v>金冬梅</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -7757,7 +7781,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f t="array" aca="1" ref="B11" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A10)))&amp;""</f>
-        <v/>
+        <v>朱美仙</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -7766,7 +7790,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="array" aca="1" ref="B12" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A11)))&amp;""</f>
-        <v/>
+        <v>妙仙</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -7775,7 +7799,7 @@
       </c>
       <c r="B13" s="1" t="str">
         <f t="array" aca="1" ref="B13" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A12)))&amp;""</f>
-        <v/>
+        <v>汪阿娟</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -7784,7 +7808,7 @@
       </c>
       <c r="B14" s="1" t="str">
         <f t="array" aca="1" ref="B14" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A13)))&amp;""</f>
-        <v/>
+        <v>许金仙</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -7793,7 +7817,7 @@
       </c>
       <c r="B15" s="1" t="str">
         <f t="array" aca="1" ref="B15" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A14)))&amp;""</f>
-        <v/>
+        <v>朱妙金</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -7802,7 +7826,7 @@
       </c>
       <c r="B16" s="1" t="str">
         <f t="array" aca="1" ref="B16" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A15)))&amp;""</f>
-        <v/>
+        <v>有仙</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -7811,7 +7835,7 @@
       </c>
       <c r="B17" s="1" t="str">
         <f t="array" aca="1" ref="B17" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A16)))&amp;""</f>
-        <v/>
+        <v>王雪芬</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -7820,7 +7844,7 @@
       </c>
       <c r="B18" s="1" t="str">
         <f t="array" aca="1" ref="B18" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A17)))&amp;""</f>
-        <v/>
+        <v>朱金仙</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -7829,7 +7853,7 @@
       </c>
       <c r="B19" s="1" t="str">
         <f t="array" aca="1" ref="B19" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A18)))&amp;""</f>
-        <v/>
+        <v>祝静霞</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -7838,7 +7862,7 @@
       </c>
       <c r="B20" s="1" t="str">
         <f t="array" aca="1" ref="B20" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A19)))&amp;""</f>
-        <v/>
+        <v>金玉</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -7847,7 +7871,7 @@
       </c>
       <c r="B21" s="1" t="str">
         <f t="array" aca="1" ref="B21" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A20)))&amp;""</f>
-        <v/>
+        <v>群红</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -7856,7 +7880,7 @@
       </c>
       <c r="B22" s="1" t="str">
         <f t="array" aca="1" ref="B22" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A21)))&amp;""</f>
-        <v/>
+        <v>张玉华</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -7865,7 +7889,7 @@
       </c>
       <c r="B23" s="1" t="str">
         <f t="array" aca="1" ref="B23" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A22)))&amp;""</f>
-        <v/>
+        <v>浦亚梅</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -7874,7 +7898,7 @@
       </c>
       <c r="B24" s="1" t="str">
         <f t="array" aca="1" ref="B24" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A23)))&amp;""</f>
-        <v/>
+        <v>顾胜华</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -7883,7 +7907,7 @@
       </c>
       <c r="B25" s="1" t="str">
         <f t="array" aca="1" ref="B25" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A24)))&amp;""</f>
-        <v/>
+        <v>张丹</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -7892,7 +7916,7 @@
       </c>
       <c r="B26" s="1" t="str">
         <f t="array" aca="1" ref="B26" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A25)))&amp;""</f>
-        <v/>
+        <v>杭褚芬</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -7901,7 +7925,7 @@
       </c>
       <c r="B27" s="1" t="str">
         <f t="array" aca="1" ref="B27" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A26)))&amp;""</f>
-        <v/>
+        <v>小艳</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -7910,7 +7934,7 @@
       </c>
       <c r="B28" s="1" t="str">
         <f t="array" aca="1" ref="B28" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A27)))&amp;""</f>
-        <v/>
+        <v>小美</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -7919,7 +7943,7 @@
       </c>
       <c r="B29" s="1" t="str">
         <f t="array" aca="1" ref="B29" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A28)))&amp;""</f>
-        <v/>
+        <v>珠仙</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -7928,7 +7952,7 @@
       </c>
       <c r="B30" s="1" t="str">
         <f t="array" aca="1" ref="B30" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A29)))&amp;""</f>
-        <v/>
+        <v>毛毛</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -7937,7 +7961,7 @@
       </c>
       <c r="B31" s="1" t="str">
         <f t="array" aca="1" ref="B31" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A30)))&amp;""</f>
-        <v/>
+        <v>利清</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -7946,7 +7970,7 @@
       </c>
       <c r="B32" s="1" t="str">
         <f t="array" aca="1" ref="B32" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A31)))&amp;""</f>
-        <v/>
+        <v>秀英</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -7955,7 +7979,7 @@
       </c>
       <c r="B33" s="1" t="str">
         <f t="array" aca="1" ref="B33" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A32)))&amp;""</f>
-        <v/>
+        <v>范卫群</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -7964,7 +7988,7 @@
       </c>
       <c r="B34" s="1" t="str">
         <f t="array" aca="1" ref="B34" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A33)))&amp;""</f>
-        <v/>
+        <v>美娟</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -7973,7 +7997,7 @@
       </c>
       <c r="B35" s="1" t="str">
         <f t="array" aca="1" ref="B35" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A34)))&amp;""</f>
-        <v/>
+        <v>陆琴仙</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -7982,7 +8006,7 @@
       </c>
       <c r="B36" s="1" t="str">
         <f t="array" aca="1" ref="B36" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A35)))&amp;""</f>
-        <v/>
+        <v>王玲芬</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -7991,7 +8015,7 @@
       </c>
       <c r="B37" s="1" t="str">
         <f t="array" aca="1" ref="B37" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A36)))&amp;""</f>
-        <v/>
+        <v>尤利仙</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -8000,7 +8024,7 @@
       </c>
       <c r="B38" s="1" t="str">
         <f t="array" aca="1" ref="B38" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A37)))&amp;""</f>
-        <v/>
+        <v>李腊春</v>
       </c>
     </row>
   </sheetData>

--- a/袜子流水表V2.xlsx
+++ b/袜子流水表V2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="姓名列表" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$62</definedName>
     <definedName name="姓名辅助">姓名列表!$B$2:$B$35</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="157">
   <si>
     <t>总金额</t>
   </si>
@@ -591,6 +591,26 @@
   </si>
   <si>
     <t>2018.11.10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00368617</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>许金仙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00368618</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -998,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J835"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1023,21 +1043,21 @@
       </c>
       <c r="B1" s="8">
         <f>SUBTOTAL(9,J:J)</f>
-        <v>4867.0999999999995</v>
+        <v>5046.5999999999995</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8">
         <f>SUBTOTAL(9,H:H)</f>
-        <v>8628</v>
+        <v>8950</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8">
         <f>SUBTOTAL(9,E:E)</f>
-        <v>15500</v>
+        <v>15650</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
@@ -2255,10 +2275,13 @@
       <c r="F44" s="18" t="s">
         <v>101</v>
       </c>
+      <c r="H44" s="13">
+        <v>40</v>
+      </c>
       <c r="I44" s="18"/>
       <c r="J44" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B44,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H44="",0,H44)),1)</f>
-        <v>0</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2403,13 +2426,18 @@
         <v>532</v>
       </c>
       <c r="F50" s="18"/>
+      <c r="G50" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="H50" s="13">
-        <v>400</v>
-      </c>
-      <c r="I50" s="18"/>
+        <v>532</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="J50" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B50,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H50="",0,H50)),1)</f>
-        <v>220</v>
+        <v>292.60000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2610,10 +2638,18 @@
       <c r="F58" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="I58" s="18"/>
+      <c r="G58" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H58" s="13">
+        <v>150</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>153</v>
+      </c>
       <c r="J58" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B58,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H58="",0,H58)),1)</f>
-        <v>0</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2690,17 +2726,44 @@
         <v>139</v>
       </c>
       <c r="I61" s="18"/>
+      <c r="J61" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B61,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H61="",0,H61)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F62" s="18"/>
+      <c r="A62" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="13">
+        <v>12</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" s="13">
+        <v>150</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="I62" s="18"/>
+      <c r="J62" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B62,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H62="",0,H62)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F63" s="18"/>
       <c r="I63" s="18"/>
     </row>
     <row r="64" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F64" s="18"/>
+      <c r="F64" s="18" t="s">
+        <v>155</v>
+      </c>
       <c r="I64" s="18"/>
     </row>
     <row r="65" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -5788,7 +5851,7 @@
       <c r="I835" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J59"/>
+  <autoFilter ref="A2:J62"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B2"/>
@@ -5809,7 +5872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F421"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/袜子流水表V2.xlsx
+++ b/袜子流水表V2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="姓名列表" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$67</definedName>
     <definedName name="姓名辅助">姓名列表!$B$2:$B$35</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="179">
   <si>
     <t>总金额</t>
   </si>
@@ -606,11 +606,119 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>00368618</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657073</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上青</t>
+    <rPh sb="0" eb="1">
+      <t>shang'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深粉</t>
+    <rPh sb="0" eb="1">
+      <t>shen'fen</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡</t>
+    <rPh sb="0" eb="1">
+      <t>ka'fei</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00368619</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00368620</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>00368618</t>
+    <t>圣方</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宓金仙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>驼</t>
+    <rPh sb="0" eb="1">
+      <t>tuo</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>208.11.11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657073</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王玲芬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016901</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张娟月</t>
+  </si>
+  <si>
+    <t>金冬梅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张玉华</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开票</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kai'piao</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小美</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'mei</t>
+    </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1016,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J835"/>
+  <dimension ref="A1:K835"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1043,21 +1151,21 @@
       </c>
       <c r="B1" s="8">
         <f>SUBTOTAL(9,J:J)</f>
-        <v>5046.5999999999995</v>
+        <v>5688.2000000000007</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8">
         <f>SUBTOTAL(9,H:H)</f>
-        <v>8950</v>
+        <v>10092</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8">
         <f>SUBTOTAL(9,E:E)</f>
-        <v>15650</v>
+        <v>18060</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
@@ -1138,10 +1246,18 @@
         <v>490</v>
       </c>
       <c r="F4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="G4" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="13">
+        <v>489</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>172</v>
+      </c>
       <c r="J4" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B4,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H4="",0,H4)),1)</f>
-        <v>0</v>
+        <v>268.89999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1337,10 +1453,18 @@
         <v>285</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="G11" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="13">
+        <v>288</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>163</v>
+      </c>
       <c r="J11" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B11,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H11="",0,H11)),1)</f>
-        <v>0</v>
+        <v>158.4</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2130,10 +2254,18 @@
       <c r="F39" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="18"/>
+      <c r="G39" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H39" s="13">
+        <v>315</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>162</v>
+      </c>
       <c r="J39" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B39,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H39="",0,H39)),1)</f>
-        <v>0</v>
+        <v>185.8</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2386,7 +2518,7 @@
         <v>232.4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>107</v>
       </c>
@@ -2409,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>114</v>
       </c>
@@ -2433,14 +2565,14 @@
         <v>532</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J50" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B50,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H50="",0,H50)),1)</f>
         <v>292.60000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>107</v>
       </c>
@@ -2469,7 +2601,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>119</v>
       </c>
@@ -2494,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>125</v>
       </c>
@@ -2519,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>131</v>
       </c>
@@ -2544,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>93</v>
       </c>
@@ -2569,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>143</v>
       </c>
@@ -2594,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>138</v>
       </c>
@@ -2619,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>99</v>
       </c>
@@ -2652,7 +2784,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>146</v>
       </c>
@@ -2681,7 +2813,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>148</v>
       </c>
@@ -2699,14 +2831,23 @@
       </c>
       <c r="F60" s="18" t="s">
         <v>130</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H60" s="13">
+        <v>50</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B60,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H60="",0,H60)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28.5</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>150</v>
       </c>
@@ -2731,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>154</v>
       </c>
@@ -2756,77 +2897,224 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F63" s="18"/>
-      <c r="I63" s="18"/>
-    </row>
-    <row r="64" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="13">
+        <v>13</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="13">
+        <v>400</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J63" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B63,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H63="",0,H63)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" s="13">
+        <v>13</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" s="13">
+        <v>150</v>
+      </c>
       <c r="F64" s="18" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="I64" s="18"/>
-    </row>
-    <row r="65" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J64" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B64,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H64="",0,H64)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="13">
+        <v>12</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" s="13">
+        <v>500</v>
+      </c>
       <c r="F65" s="18"/>
       <c r="I65" s="18"/>
-    </row>
-    <row r="66" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F66" s="18"/>
+      <c r="J65" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B65,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H65="",0,H65)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="13">
+        <v>13</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>130</v>
+      </c>
       <c r="I66" s="18"/>
-    </row>
-    <row r="67" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F67" s="18"/>
+      <c r="J66" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B66,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H66="",0,H66)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="13">
+        <v>13</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" s="13">
+        <v>500</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>170</v>
+      </c>
       <c r="I67" s="18"/>
     </row>
-    <row r="68" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F68" s="18"/>
+    <row r="68" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="13">
+        <v>13</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E68" s="13">
+        <v>50</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>157</v>
+      </c>
       <c r="I68" s="18"/>
     </row>
-    <row r="69" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F69" s="18"/>
+    <row r="69" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" s="13">
+        <v>13</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" s="13">
+        <v>450</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>157</v>
+      </c>
       <c r="I69" s="18"/>
     </row>
-    <row r="70" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F70" s="18"/>
+    <row r="70" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" s="13">
+        <v>15</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70" s="13">
+        <v>360</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>170</v>
+      </c>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F71" s="18"/>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F72" s="18"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F73" s="18"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F74" s="18"/>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F75" s="18"/>
       <c r="I75" s="18"/>
     </row>
-    <row r="76" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F76" s="18"/>
       <c r="I76" s="18"/>
     </row>
-    <row r="77" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F77" s="18"/>
       <c r="I77" s="18"/>
     </row>
-    <row r="78" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F78" s="18"/>
       <c r="I78" s="18"/>
     </row>
-    <row r="79" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F79" s="18"/>
       <c r="I79" s="18"/>
     </row>
-    <row r="80" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F80" s="18"/>
       <c r="I80" s="18"/>
     </row>
@@ -5851,7 +6139,7 @@
       <c r="I835" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J62"/>
+  <autoFilter ref="A2:J67"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B2"/>
@@ -5872,8 +6160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5892,7 +6180,7 @@
       </c>
       <c r="B1" s="6">
         <f>SUBTOTAL(9,E:E)</f>
-        <v>4835</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6089,74 +6377,114 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="2">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="2">
+        <v>360</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
     </row>
@@ -7717,16 +8045,18 @@
       <c r="B421" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F9:F12"/>
+  <mergeCells count="11">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F9:F12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -7741,10 +8071,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8090,6 +8420,24 @@
         <v>李腊春</v>
       </c>
     </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f t="array" aca="1" ref="B39" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A38)))&amp;""</f>
+        <v>张娟月</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f t="array" aca="1" ref="B40" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A39)))&amp;""</f>
+        <v>小美</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/袜子流水表V2.xlsx
+++ b/袜子流水表V2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="姓名列表" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$80</definedName>
     <definedName name="姓名辅助">姓名列表!$B$2:$B$35</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="201">
   <si>
     <t>总金额</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>取货日期</t>
-  </si>
-  <si>
-    <t>取货数量</t>
   </si>
   <si>
     <t>发票号</t>
@@ -719,6 +716,121 @@
     <rPh sb="0" eb="1">
       <t>xiao'mei</t>
     </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657074</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金玉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆琴仙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016902</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016903</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小艳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色（蓝）</t>
+    <rPh sb="0" eb="1">
+      <t>zi'se</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lan</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰（蓝）</t>
+    <rPh sb="0" eb="1">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lan</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色（蓝）</t>
+    <rPh sb="0" eb="1">
+      <t>zi'se</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016904</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016905</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657075</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡</t>
+    <rPh sb="0" eb="1">
+      <t>ka'fe</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>建芬</t>
+  </si>
+  <si>
+    <t>建芬</t>
+    <rPh sb="0" eb="1">
+      <t>jian'she</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657075</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王雪芬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>取货数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016906</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016907</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1124,10 +1236,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K835"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1151,21 +1264,21 @@
       </c>
       <c r="B1" s="8">
         <f>SUBTOTAL(9,J:J)</f>
-        <v>5688.2000000000007</v>
+        <v>291.5</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8">
         <f>SUBTOTAL(9,H:H)</f>
-        <v>10092</v>
+        <v>522</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8">
         <f>SUBTOTAL(9,E:E)</f>
-        <v>18060</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
@@ -1182,43 +1295,43 @@
         <v>6</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:10" s="12" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>13</v>
       </c>
       <c r="B3" s="13">
         <v>13</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="17">
         <v>90</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="17">
         <v>90</v>
@@ -1229,56 +1342,56 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="13">
         <v>11</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="13">
         <v>490</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H4" s="13">
         <v>489</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J4" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B4,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H4="",0,H4)),1)</f>
         <v>268.89999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="13">
         <v>12</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="13">
         <v>200</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="13">
         <v>200</v>
@@ -1289,25 +1402,25 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="13">
         <v>13</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="13">
         <v>381</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H6" s="13">
         <v>379</v>
@@ -1318,56 +1431,56 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="13">
         <v>11</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="E7" s="13">
         <v>278</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" s="13">
         <v>273</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B7,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H7="",0,H7)),1)</f>
         <v>150.1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="13">
         <v>13</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="13">
         <v>299</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="13">
         <v>299</v>
@@ -1378,25 +1491,25 @@
         <v>170.4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="13">
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="E9" s="13">
         <v>497</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="13">
         <v>497</v>
@@ -1407,25 +1520,25 @@
         <v>273.3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="13">
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="E10" s="13">
         <v>200</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="13">
         <v>200</v>
@@ -1436,31 +1549,31 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="13">
         <v>11</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="13">
         <v>285</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H11" s="13">
         <v>288</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J11" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B11,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H11="",0,H11)),1)</f>
@@ -1469,23 +1582,23 @@
     </row>
     <row r="12" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="13">
         <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="E12" s="13">
         <v>69</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="13">
         <v>69</v>
@@ -1498,77 +1611,80 @@
     </row>
     <row r="13" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="13">
         <v>15</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="13">
         <v>330</v>
       </c>
       <c r="F13" s="18"/>
+      <c r="H13" s="13">
+        <v>75</v>
+      </c>
       <c r="I13" s="18"/>
       <c r="J13" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B13,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H13="",0,H13)),1)</f>
-        <v>0</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="13">
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="13">
         <v>390</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="13">
         <v>378</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J14" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B14,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H14="",0,H14)),1)</f>
         <v>207.9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="13">
         <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="13">
         <v>199</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H15" s="13">
         <v>199</v>
@@ -1579,25 +1695,25 @@
         <v>113.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="13">
         <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="13">
         <v>80</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="13">
         <v>80</v>
@@ -1608,87 +1724,87 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="13">
         <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="13">
         <v>200</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" s="13">
         <v>200</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B17,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H17="",0,H17)),1)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="13">
         <v>13</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="E18" s="13">
         <v>200</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H18" s="13">
         <v>200</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J18" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B18,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H18="",0,H18)),1)</f>
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="13">
         <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="13">
         <v>200</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="13">
         <v>200</v>
@@ -1699,56 +1815,56 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="13">
         <v>11</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="13">
         <v>200</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" s="13">
         <v>200</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J20" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B20,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H20="",0,H20)),1)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="13">
         <v>12</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="E21" s="13">
         <v>241</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="13">
         <v>241</v>
@@ -1759,82 +1875,84 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="13">
         <v>12</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="13">
         <v>296</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H22" s="13">
         <v>296</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J22" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B22,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H22="",0,H22)),1)</f>
         <v>162.80000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="13">
         <v>14</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="13">
         <v>173</v>
       </c>
       <c r="F23" s="18"/>
       <c r="H23" s="13">
-        <v>80</v>
-      </c>
-      <c r="I23" s="18"/>
+        <v>160</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>182</v>
+      </c>
       <c r="J23" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B23,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H23="",0,H23)),1)</f>
-        <v>47.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="13">
         <v>12</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="E24" s="13">
         <v>500</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" s="13">
         <v>500</v>
@@ -1845,79 +1963,85 @@
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="13">
         <v>12</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="13">
         <v>300</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H25" s="13">
         <v>297</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J25" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B25,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H25="",0,H25)),1)</f>
         <v>163.30000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="13">
         <v>12</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="13">
         <v>400</v>
       </c>
       <c r="F26" s="18"/>
+      <c r="G26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="13">
+        <v>400</v>
+      </c>
       <c r="I26" s="18"/>
       <c r="J26" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B26,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H26="",0,H26)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="13">
         <v>13</v>
       </c>
       <c r="C27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="E27" s="13">
         <v>387</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27" s="13">
         <v>387</v>
@@ -1928,18 +2052,18 @@
         <v>220.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="13">
         <v>12</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="13">
         <v>500</v>
@@ -1951,25 +2075,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="13">
         <v>12</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="13">
         <v>60</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H29" s="13">
         <v>60</v>
@@ -1980,18 +2104,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="13">
         <v>11</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="13">
         <v>235</v>
@@ -2003,25 +2127,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="13">
         <v>12</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="13">
         <v>484</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31" s="13">
         <v>484</v>
@@ -2032,25 +2156,25 @@
         <v>266.2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="13">
         <v>12</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="13">
         <v>300</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H32" s="13">
         <v>300</v>
@@ -2061,25 +2185,25 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="13">
         <v>14</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" s="13">
         <v>160</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33" s="13">
         <v>160</v>
@@ -2090,25 +2214,25 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="13">
         <v>14</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="13">
         <v>330</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34" s="13">
         <v>330</v>
@@ -2119,56 +2243,56 @@
         <v>194.7</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="13">
         <v>12</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="13">
         <v>100</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H35" s="13">
         <v>100</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J35" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B35,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H35="",0,H35)),1)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="13">
         <v>13</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="13">
         <v>418</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36" s="13">
         <v>418</v>
@@ -2179,280 +2303,300 @@
         <v>238.2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="13">
         <v>15</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" s="13">
         <v>293</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H37" s="13">
         <v>292</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J37" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B37,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H37="",0,H37)),1)</f>
         <v>178.1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="13">
         <v>14</v>
       </c>
       <c r="C38" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="E38" s="13">
         <v>350</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H38" s="13">
+        <v>281</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B38,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H38="",0,H38)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="13">
         <v>14</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="13">
         <v>315</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H39" s="13">
         <v>315</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J39" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B39,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H39="",0,H39)),1)</f>
         <v>185.8</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="13">
         <v>17</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" s="13">
         <v>30</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H40" s="13">
         <v>30</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J40" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B40,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H40="",0,H40)),1)</f>
         <v>19.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" s="13">
         <v>12</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="E41" s="13">
         <v>160</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H41" s="13">
         <v>160</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J41" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B41,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H41="",0,H41)),1)</f>
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" s="13">
         <v>12</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" s="13">
         <v>240</v>
       </c>
       <c r="F42" s="18"/>
+      <c r="G42" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H42" s="13">
+        <v>172</v>
+      </c>
       <c r="I42" s="18"/>
       <c r="J42" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B42,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H42="",0,H42)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" s="13">
         <v>15</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E43" s="13">
         <v>155</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H43" s="13">
         <v>155</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J43" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B43,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H43="",0,H43)),1)</f>
         <v>94.5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="13">
         <v>15</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E44" s="13">
         <v>200</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H44" s="13">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B44,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H44="",0,H44)),1)</f>
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" s="13">
         <v>14</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" s="13">
         <v>500</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I45" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H45" s="13">
+        <v>462</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>198</v>
+      </c>
       <c r="J45" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B45,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H45="",0,H45)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>272.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="13">
         <v>13</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" s="13">
         <v>160</v>
@@ -2464,18 +2608,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" s="13">
         <v>11</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>117</v>
       </c>
       <c r="E47" s="13">
         <v>300</v>
@@ -2487,49 +2631,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="13">
         <v>16</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48" s="13">
         <v>370</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H48" s="13">
         <v>369</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J48" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B48,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H48="",0,H48)),1)</f>
         <v>232.4</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B49" s="13">
         <v>16</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E49" s="13">
         <v>10</v>
@@ -2541,56 +2685,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50" s="13">
         <v>12</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E50" s="13">
         <v>532</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H50" s="13">
         <v>532</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J50" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B50,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H50="",0,H50)),1)</f>
         <v>292.60000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B51" s="13">
         <v>12</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E51" s="13">
         <v>90</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H51" s="13">
         <v>95</v>
@@ -2601,24 +2745,24 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" s="13">
         <v>14</v>
       </c>
       <c r="C52" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>121</v>
       </c>
       <c r="E52" s="13">
         <v>360</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="12">
@@ -2626,24 +2770,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B53" s="13">
         <v>14</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E53" s="13">
         <v>500</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I53" s="18"/>
       <c r="J53" s="12">
@@ -2651,74 +2795,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B54" s="13">
         <v>15</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E54" s="13">
         <v>358</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I54" s="18"/>
+        <v>129</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H54" s="13">
+        <v>355</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>183</v>
+      </c>
       <c r="J54" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B54,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H54="",0,H54)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>216.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" s="13">
         <v>11</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E55" s="13">
         <v>395</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="I55" s="18"/>
+        <v>131</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H55" s="13">
+        <v>395</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>199</v>
+      </c>
       <c r="J55" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B55,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H55="",0,H55)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>217.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B56" s="13">
         <v>11</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E56" s="13">
         <v>200</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="12">
@@ -2726,24 +2886,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B57" s="13">
         <v>12</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E57" s="13">
         <v>200</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I57" s="18"/>
       <c r="J57" s="12">
@@ -2751,58 +2911,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" s="13">
         <v>11</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E58" s="13">
         <v>150</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H58" s="13">
         <v>150</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J58" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B58,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H58="",0,H58)),1)</f>
         <v>82.5</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B59" s="13">
         <v>16</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E59" s="13">
         <v>10</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H59" s="13">
         <v>10</v>
@@ -2813,27 +2973,27 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B60" s="13">
         <v>13</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E60" s="13">
         <v>50</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H60" s="13">
         <v>50</v>
@@ -2844,27 +3004,27 @@
         <v>28.5</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B61" s="13">
         <v>12</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E61" s="13">
         <v>100</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="12">
@@ -2872,95 +3032,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B62" s="13">
         <v>12</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E62" s="13">
         <v>150</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="I62" s="18"/>
+        <v>138</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H62" s="13">
+        <v>150</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>188</v>
+      </c>
       <c r="J62" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B62,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H62="",0,H62)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B63" s="13">
         <v>13</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E63" s="13">
         <v>400</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J63" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B63,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H63="",0,H63)),1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B64" s="13">
         <v>13</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E64" s="13">
         <v>150</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I64" s="18"/>
+        <v>129</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H64" s="13">
+        <v>150</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="J64" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B64,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H64="",0,H64)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65" s="13">
         <v>12</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E65" s="13">
         <v>500</v>
@@ -2972,21 +3148,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" s="13">
         <v>13</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I66" s="18"/>
       <c r="J66" s="12">
@@ -2994,128 +3170,298 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B67" s="13">
         <v>13</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E67" s="13">
         <v>500</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I67" s="18"/>
     </row>
-    <row r="68" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B68" s="13">
         <v>13</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E68" s="13">
         <v>50</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I68" s="18"/>
     </row>
     <row r="69" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B69" s="13">
         <v>13</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E69" s="13">
         <v>450</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I69" s="18"/>
     </row>
-    <row r="70" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B70" s="13">
         <v>15</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E70" s="13">
         <v>360</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F71" s="18"/>
+    <row r="71" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="13">
+        <v>14</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="13">
+        <v>200</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F72" s="18"/>
+    <row r="72" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" s="13">
+        <v>12</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72" s="13">
+        <v>495</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>178</v>
+      </c>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F73" s="18"/>
+    <row r="73" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="13">
+        <v>14</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E73" s="13">
+        <v>300</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F74" s="18"/>
+    <row r="74" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" s="13">
+        <v>13</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" s="13">
+        <v>342</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>178</v>
+      </c>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F75" s="18"/>
+    <row r="75" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="13">
+        <v>13</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E75" s="13">
+        <v>200</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>178</v>
+      </c>
       <c r="I75" s="18"/>
     </row>
-    <row r="76" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F76" s="18"/>
+    <row r="76" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="13">
+        <v>13</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" s="13">
+        <v>160</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>178</v>
+      </c>
       <c r="I76" s="18"/>
     </row>
-    <row r="77" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F77" s="18"/>
+    <row r="77" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="13">
+        <v>13</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="13">
+        <v>250</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>190</v>
+      </c>
       <c r="I77" s="18"/>
     </row>
-    <row r="78" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F78" s="18"/>
+    <row r="78" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="13">
+        <v>13</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="13">
+        <v>200</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>195</v>
+      </c>
       <c r="I78" s="18"/>
     </row>
-    <row r="79" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F79" s="18"/>
+    <row r="79" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" s="13">
+        <v>12</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" s="13">
+        <v>245</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>195</v>
+      </c>
       <c r="I79" s="18"/>
     </row>
-    <row r="80" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F80" s="18"/>
+    <row r="80" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" s="13">
+        <v>12</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" s="13">
+        <v>100</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>195</v>
+      </c>
       <c r="I80" s="18"/>
     </row>
     <row r="81" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -3124,7 +3470,9 @@
     </row>
     <row r="82" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F82" s="18"/>
-      <c r="I82" s="18"/>
+      <c r="I82" s="18" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="83" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F83" s="18"/>
@@ -6139,7 +6487,13 @@
       <c r="I835" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J67"/>
+  <autoFilter ref="A2:J80">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="金冬梅"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B2"/>
@@ -6160,8 +6514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F421"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6176,19 +6530,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6">
         <f>SUBTOTAL(9,E:E)</f>
-        <v>6695</v>
+        <v>8722</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -6197,21 +6551,21 @@
         <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
         <v>350</v>
@@ -6224,7 +6578,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2">
         <v>675</v>
@@ -6237,7 +6591,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2">
         <v>30</v>
@@ -6245,16 +6599,16 @@
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>121</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>122</v>
       </c>
       <c r="C6" s="2">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2">
         <v>360</v>
@@ -6267,7 +6621,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2">
         <v>500</v>
@@ -6280,7 +6634,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2">
         <v>400</v>
@@ -6288,16 +6642,16 @@
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2">
         <v>453</v>
@@ -6311,7 +6665,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="2">
         <v>358</v>
@@ -6325,7 +6679,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2">
         <v>500</v>
@@ -6339,7 +6693,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="2">
         <v>430</v>
@@ -6348,16 +6702,16 @@
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2">
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2">
         <v>395</v>
@@ -6370,7 +6724,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2">
         <v>384</v>
@@ -6378,16 +6732,16 @@
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>157</v>
       </c>
       <c r="C15" s="2">
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15" s="2">
         <v>360</v>
@@ -6400,7 +6754,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="2">
         <v>500</v>
@@ -6413,7 +6767,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E17" s="2">
         <v>500</v>
@@ -6426,31 +6780,84 @@
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="2">
+        <v>360</v>
+      </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="2">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="2">
+        <v>342</v>
+      </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="2">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="2">
+        <v>345</v>
+      </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="2">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="2">
+        <v>480</v>
+      </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
@@ -8045,18 +8452,22 @@
       <c r="B421" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="F9:F12"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F9:F12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -8071,10 +8482,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8084,12 +8495,12 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="str">
         <f t="array" aca="1" ref="B2" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A1)))&amp;""</f>
@@ -8098,7 +8509,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="array" aca="1" ref="B3" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A2)))&amp;""</f>
@@ -8107,7 +8518,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="array" aca="1" ref="B4" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A3)))&amp;""</f>
@@ -8116,7 +8527,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="array" aca="1" ref="B5" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A4)))&amp;""</f>
@@ -8125,7 +8536,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="array" aca="1" ref="B6" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A5)))&amp;""</f>
@@ -8134,7 +8545,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="array" aca="1" ref="B7" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A6)))&amp;""</f>
@@ -8143,7 +8554,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="array" aca="1" ref="B8" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A7)))&amp;""</f>
@@ -8152,7 +8563,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="array" aca="1" ref="B9" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A8)))&amp;""</f>
@@ -8161,7 +8572,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="array" aca="1" ref="B10" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A9)))&amp;""</f>
@@ -8170,7 +8581,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="array" aca="1" ref="B11" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A10)))&amp;""</f>
@@ -8179,7 +8590,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="array" aca="1" ref="B12" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A11)))&amp;""</f>
@@ -8188,7 +8599,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="array" aca="1" ref="B13" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A12)))&amp;""</f>
@@ -8197,7 +8608,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="array" aca="1" ref="B14" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A13)))&amp;""</f>
@@ -8206,7 +8617,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="array" aca="1" ref="B15" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A14)))&amp;""</f>
@@ -8215,7 +8626,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="array" aca="1" ref="B16" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A15)))&amp;""</f>
@@ -8224,7 +8635,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="array" aca="1" ref="B17" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A16)))&amp;""</f>
@@ -8233,7 +8644,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="array" aca="1" ref="B18" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A17)))&amp;""</f>
@@ -8242,7 +8653,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="array" aca="1" ref="B19" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A18)))&amp;""</f>
@@ -8251,7 +8662,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="array" aca="1" ref="B20" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A19)))&amp;""</f>
@@ -8260,7 +8671,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="array" aca="1" ref="B21" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A20)))&amp;""</f>
@@ -8269,7 +8680,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="array" aca="1" ref="B22" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A21)))&amp;""</f>
@@ -8278,7 +8689,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="array" aca="1" ref="B23" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A22)))&amp;""</f>
@@ -8287,7 +8698,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="array" aca="1" ref="B24" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A23)))&amp;""</f>
@@ -8296,7 +8707,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="array" aca="1" ref="B25" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A24)))&amp;""</f>
@@ -8305,7 +8716,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="array" aca="1" ref="B26" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A25)))&amp;""</f>
@@ -8314,7 +8725,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="str">
         <f t="array" aca="1" ref="B27" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A26)))&amp;""</f>
@@ -8323,7 +8734,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="array" aca="1" ref="B28" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A27)))&amp;""</f>
@@ -8332,7 +8743,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="str">
         <f t="array" aca="1" ref="B29" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A28)))&amp;""</f>
@@ -8341,7 +8752,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="array" aca="1" ref="B30" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A29)))&amp;""</f>
@@ -8350,7 +8761,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="array" aca="1" ref="B31" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A30)))&amp;""</f>
@@ -8359,7 +8770,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="array" aca="1" ref="B32" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A31)))&amp;""</f>
@@ -8368,7 +8779,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="array" aca="1" ref="B33" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A32)))&amp;""</f>
@@ -8377,7 +8788,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="array" aca="1" ref="B34" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A33)))&amp;""</f>
@@ -8386,7 +8797,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="array" aca="1" ref="B35" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A34)))&amp;""</f>
@@ -8395,7 +8806,7 @@
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="1" t="str">
         <f t="array" aca="1" ref="B36" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A35)))&amp;""</f>
@@ -8404,7 +8815,7 @@
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="array" aca="1" ref="B37" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A36)))&amp;""</f>
@@ -8413,7 +8824,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="array" aca="1" ref="B38" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A37)))&amp;""</f>
@@ -8422,7 +8833,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="array" aca="1" ref="B39" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A38)))&amp;""</f>
@@ -8431,11 +8842,20 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="array" aca="1" ref="B40" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A39)))&amp;""</f>
         <v>小美</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f t="array" aca="1" ref="B41" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A40)))&amp;""</f>
+        <v>建芬</v>
       </c>
     </row>
   </sheetData>

--- a/袜子流水表V2.xlsx
+++ b/袜子流水表V2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="姓名列表" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$112</definedName>
     <definedName name="姓名辅助">姓名列表!$B$2:$B$35</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="277">
   <si>
     <t>总金额</t>
   </si>
@@ -648,10 +648,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>圣方</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -831,6 +827,388 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016908</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657076</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016909</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>谈雪娥</t>
+  </si>
+  <si>
+    <t>谈雪娥</t>
+    <rPh sb="0" eb="1">
+      <t>tan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>e</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016910</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016911</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>许金仙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016912</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱金仙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016913</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张娟月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657072</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657077</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王色</t>
+    <rPh sb="0" eb="1">
+      <t>wang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>se</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>桔红</t>
+    <rPh sb="0" eb="1">
+      <t>ju'se</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hong</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛仔兰</t>
+    <rPh sb="0" eb="1">
+      <t>niu'zai'la'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lan</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆琴仙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>桔红</t>
+    <rPh sb="0" eb="1">
+      <t>ju</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hong</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016915</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016916</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小美</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛仔兰</t>
+    <rPh sb="0" eb="1">
+      <t>niu'zai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lan</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657077</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016917</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>於方明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.19</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016918</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657078</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾胜华</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>驼色</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016919</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱金仙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016920</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如芬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657072</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色</t>
+    <rPh sb="0" eb="1">
+      <t>hui'se</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016883</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016882</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016884</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016885</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016886</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小美</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色（毛）</t>
+    <rPh sb="0" eb="1">
+      <t>hui'se</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mao</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大红（毛）</t>
+    <rPh sb="0" eb="1">
+      <t>da'hong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mao</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657079</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美娟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016887</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.121</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016888</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016889</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016890</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016891</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦亚梅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色（表里写12码的）</t>
+    <rPh sb="0" eb="1">
+      <t>hui'se</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ma</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金冬梅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016892</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657080</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉红</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hong</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>许利月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657080</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1236,11 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:K835"/>
+  <dimension ref="A1:K834"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1264,21 +1641,21 @@
       </c>
       <c r="B1" s="8">
         <f>SUBTOTAL(9,J:J)</f>
-        <v>291.5</v>
+        <v>11383.9</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8">
         <f>SUBTOTAL(9,H:H)</f>
-        <v>522</v>
+        <v>20131</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8">
         <f>SUBTOTAL(9,E:E)</f>
-        <v>1239</v>
+        <v>28168</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
@@ -1295,7 +1672,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>7</v>
@@ -1313,7 +1690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="12" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1342,7 +1719,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
@@ -1366,14 +1743,14 @@
         <v>489</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J4" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B4,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H4="",0,H4)),1)</f>
         <v>268.89999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
@@ -1402,7 +1779,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
@@ -1431,7 +1808,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
@@ -1462,7 +1839,7 @@
         <v>150.1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -1491,65 +1868,61 @@
         <v>170.4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B9" s="13">
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E9" s="13">
-        <v>497</v>
+        <v>300</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="13" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="H9" s="13">
-        <v>497</v>
+        <v>300</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B9,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H9="",0,H9)),1)</f>
-        <v>273.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="B10" s="13">
         <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="E10" s="13">
         <v>200</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="13">
-        <v>200</v>
+      <c r="F10" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B10,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H10="",0,H10)),1)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -1582,31 +1955,31 @@
     </row>
     <row r="12" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B12" s="13">
         <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E12" s="13">
-        <v>69</v>
+        <v>500</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="13" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="H12" s="13">
-        <v>69</v>
+        <v>500</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B12,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H12="",0,H12)),1)</f>
-        <v>37.9</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1626,47 +1999,46 @@
         <v>330</v>
       </c>
       <c r="F13" s="18"/>
+      <c r="G13" s="13" t="s">
+        <v>205</v>
+      </c>
       <c r="H13" s="13">
-        <v>75</v>
-      </c>
-      <c r="I13" s="18"/>
+        <v>329</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>204</v>
+      </c>
       <c r="J13" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B13,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H13="",0,H13)),1)</f>
-        <v>45.7</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="B14" s="13">
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="E14" s="13">
-        <v>390</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="13">
-        <v>378</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>143</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="I14" s="18"/>
       <c r="J14" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B14,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H14="",0,H14)),1)</f>
-        <v>207.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>39</v>
       </c>
@@ -1695,67 +2067,67 @@
         <v>113.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16" s="13">
         <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E16" s="13">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H16" s="13">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B16,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H16="",0,H16)),1)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B17" s="13">
         <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E17" s="13">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="13" t="s">
         <v>126</v>
       </c>
       <c r="H17" s="13">
-        <v>200</v>
+        <v>378</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="J17" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B17,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H17="",0,H17)),1)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>207.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>42</v>
       </c>
@@ -1786,36 +2158,32 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="B19" s="13">
         <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="E19" s="13">
-        <v>200</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="13">
-        <v>200</v>
+        <v>495</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B19,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H19="",0,H19)),1)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>45</v>
       </c>
@@ -1846,67 +2214,66 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B21" s="13">
         <v>12</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E21" s="13">
-        <v>241</v>
+        <v>100</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="13" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H21" s="13">
-        <v>241</v>
-      </c>
-      <c r="I21" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="J21" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B21,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H21="",0,H21)),1)</f>
-        <v>132.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="B22" s="13">
         <v>12</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="E22" s="13">
-        <v>296</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="13" t="s">
-        <v>96</v>
+        <v>245</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="H22" s="13">
-        <v>296</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>108</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I22" s="18"/>
       <c r="J22" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B22,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H22="",0,H22)),1)</f>
-        <v>162.80000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>50</v>
       </c>
@@ -1927,103 +2294,101 @@
         <v>160</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J23" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B23,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H23="",0,H23)),1)</f>
         <v>94.4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="B24" s="13">
         <v>12</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="E24" s="13">
-        <v>500</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="13">
-        <v>500</v>
+        <v>100</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B24,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H24="",0,H24)),1)</f>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B25" s="13">
         <v>12</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="E25" s="13">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="13" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="H25" s="13">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="J25" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B25,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H25="",0,H25)),1)</f>
-        <v>163.30000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B26" s="13">
         <v>12</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="E26" s="13">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="13" t="s">
-        <v>96</v>
+        <v>261</v>
       </c>
       <c r="H26" s="13">
-        <v>400</v>
-      </c>
-      <c r="I26" s="18"/>
+        <v>360</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="J26" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B26,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H26="",0,H26)),1)</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>55</v>
       </c>
@@ -2052,59 +2417,65 @@
         <v>220.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="13">
         <v>12</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E28" s="13">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F28" s="18"/>
+      <c r="G28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="13">
+        <v>400</v>
+      </c>
       <c r="I28" s="18"/>
       <c r="J28" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B28,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H28="",0,H28)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B29" s="13">
         <v>12</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="E29" s="13">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="13" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="H29" s="13">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B29,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H29="",0,H29)),1)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>58</v>
       </c>
@@ -2127,65 +2498,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B31" s="13">
         <v>12</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="13">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="13" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H31" s="13">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B31,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H31="",0,H31)),1)</f>
-        <v>266.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B32" s="13">
         <v>12</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E32" s="13">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="13" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="H32" s="13">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B32,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H32="",0,H32)),1)</f>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>61</v>
       </c>
@@ -2214,7 +2585,7 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>63</v>
       </c>
@@ -2243,38 +2614,29 @@
         <v>194.7</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="B35" s="13">
         <v>12</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="13">
-        <v>100</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H35" s="13">
-        <v>100</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>102</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I35" s="18"/>
       <c r="J35" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B35,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H35="",0,H35)),1)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>65</v>
       </c>
@@ -2303,7 +2665,7 @@
         <v>238.2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>65</v>
       </c>
@@ -2334,7 +2696,7 @@
         <v>178.1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>67</v>
       </c>
@@ -2354,7 +2716,7 @@
         <v>70</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H38" s="13">
         <v>281</v>
@@ -2365,7 +2727,7 @@
         <v>165.7</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>28</v>
       </c>
@@ -2398,7 +2760,7 @@
         <v>185.8</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>72</v>
       </c>
@@ -2431,9 +2793,9 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="B41" s="13">
         <v>12</v>
@@ -2442,56 +2804,54 @@
         <v>93</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="E41" s="13">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="13" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="H41" s="13">
-        <v>160</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>144</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I41" s="18"/>
       <c r="J41" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B41,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H41="",0,H41)),1)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B42" s="13">
         <v>12</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="E42" s="13">
-        <v>240</v>
+        <v>497</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="13" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="H42" s="13">
-        <v>172</v>
+        <v>497</v>
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B42,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H42="",0,H42)),1)</f>
-        <v>94.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>273.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>98</v>
       </c>
@@ -2524,7 +2884,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>101</v>
       </c>
@@ -2544,15 +2904,17 @@
         <v>100</v>
       </c>
       <c r="H44" s="13">
-        <v>80</v>
-      </c>
-      <c r="I44" s="18"/>
+        <v>200</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>200</v>
+      </c>
       <c r="J44" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B44,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H44="",0,H44)),1)</f>
-        <v>48.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>104</v>
       </c>
@@ -2572,20 +2934,20 @@
         <v>100</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H45" s="13">
         <v>462</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J45" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B45,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H45="",0,H45)),1)</f>
         <v>272.5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>106</v>
       </c>
@@ -2602,13 +2964,19 @@
         <v>160</v>
       </c>
       <c r="F46" s="18"/>
+      <c r="G46" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="H46" s="13">
+        <v>157</v>
+      </c>
       <c r="I46" s="18"/>
       <c r="J46" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B46,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H46="",0,H46)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>110</v>
       </c>
@@ -2625,13 +2993,21 @@
         <v>300</v>
       </c>
       <c r="F47" s="18"/>
-      <c r="I47" s="18"/>
+      <c r="G47" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" s="13">
+        <v>289</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>233</v>
+      </c>
       <c r="J47" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B47,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H47="",0,H47)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>111</v>
       </c>
@@ -2662,7 +3038,7 @@
         <v>232.4</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>106</v>
       </c>
@@ -2679,73 +3055,77 @@
         <v>10</v>
       </c>
       <c r="F49" s="18"/>
+      <c r="G49" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H49" s="13">
+        <v>10</v>
+      </c>
       <c r="I49" s="18"/>
       <c r="J49" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B49,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H49="",0,H49)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="B50" s="13">
         <v>12</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="E50" s="13">
-        <v>532</v>
+        <v>200</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="13" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="H50" s="13">
-        <v>532</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>154</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I50" s="18"/>
       <c r="J50" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B50,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H50="",0,H50)),1)</f>
-        <v>292.60000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="B51" s="13">
         <v>12</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E51" s="13">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="13" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="H51" s="13">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I51" s="18"/>
       <c r="J51" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B51,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H51="",0,H51)),1)</f>
-        <v>52.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>118</v>
       </c>
@@ -2770,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>124</v>
       </c>
@@ -2795,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>130</v>
       </c>
@@ -2815,20 +3195,20 @@
         <v>129</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H54" s="13">
         <v>355</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J54" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B54,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H54="",0,H54)),1)</f>
         <v>216.5</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>92</v>
       </c>
@@ -2848,20 +3228,20 @@
         <v>131</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H55" s="13">
         <v>395</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J55" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B55,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H55="",0,H55)),1)</f>
         <v>217.2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>142</v>
       </c>
@@ -2880,38 +3260,52 @@
       <c r="F56" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="I56" s="18"/>
+      <c r="G56" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H56" s="13">
+        <v>172</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>242</v>
+      </c>
       <c r="J56" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B56,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H56="",0,H56)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="B57" s="13">
         <v>12</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="E57" s="13">
         <v>200</v>
       </c>
-      <c r="F57" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="I57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H57" s="13">
+        <v>200</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="J57" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B57,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H57="",0,H57)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>98</v>
       </c>
@@ -2944,7 +3338,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>145</v>
       </c>
@@ -2973,7 +3367,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>147</v>
       </c>
@@ -2993,7 +3387,7 @@
         <v>129</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H60" s="13">
         <v>50</v>
@@ -3004,70 +3398,72 @@
         <v>28.5</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B61" s="13">
         <v>12</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="E61" s="13">
-        <v>100</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="I61" s="18"/>
+        <v>532</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61" s="13">
+        <v>532</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="J61" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B61,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H61="",0,H61)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>292.60000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="B62" s="13">
         <v>12</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="E62" s="13">
-        <v>150</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>138</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F62" s="18"/>
       <c r="G62" s="13" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="H62" s="13">
-        <v>150</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>188</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I62" s="18"/>
       <c r="J62" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B62,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H62="",0,H62)),1)</f>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B63" s="13">
         <v>13</v>
@@ -3084,17 +3480,23 @@
       <c r="F63" s="18" t="s">
         <v>100</v>
       </c>
+      <c r="G63" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H63" s="13">
+        <v>370</v>
+      </c>
       <c r="I63" s="18" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="J63" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B63,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H63="",0,H63)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>210.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B64" s="13">
         <v>13</v>
@@ -3103,7 +3505,7 @@
         <v>122</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E64" s="13">
         <v>150</v>
@@ -3112,43 +3514,53 @@
         <v>129</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H64" s="13">
         <v>150</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J64" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B64,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H64="",0,H64)),1)</f>
         <v>85.5</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="B65" s="13">
         <v>12</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E65" s="13">
-        <v>500</v>
-      </c>
-      <c r="F65" s="18"/>
-      <c r="I65" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H65" s="13">
+        <v>100</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>208</v>
+      </c>
       <c r="J65" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B65,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H65="",0,H65)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>106</v>
       </c>
@@ -3159,20 +3571,26 @@
         <v>122</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="E66" s="13">
+        <v>230</v>
       </c>
       <c r="F66" s="18" t="s">
         <v>129</v>
+      </c>
+      <c r="H66" s="13">
+        <v>230</v>
       </c>
       <c r="I66" s="18"/>
       <c r="J66" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B66,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H66="",0,H66)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>131.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B67" s="13">
         <v>13</v>
@@ -3187,13 +3605,25 @@
         <v>500</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="I67" s="18"/>
-    </row>
-    <row r="68" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="H67" s="13">
+        <v>500</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="J67" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B67,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H67="",0,H67)),1)</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B68" s="13">
         <v>13</v>
@@ -3210,11 +3640,21 @@
       <c r="F68" s="18" t="s">
         <v>156</v>
       </c>
+      <c r="G68" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H68" s="13">
+        <v>50</v>
+      </c>
       <c r="I68" s="18"/>
+      <c r="J68" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B68,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H68="",0,H68)),1)</f>
+        <v>28.5</v>
+      </c>
     </row>
     <row r="69" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B69" s="13">
         <v>13</v>
@@ -3231,11 +3671,23 @@
       <c r="F69" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="I69" s="18"/>
-    </row>
-    <row r="70" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G69" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="H69" s="13">
+        <v>372</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="J69" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B69,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H69="",0,H69)),1)</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" s="13">
         <v>15</v>
@@ -3250,11 +3702,15 @@
         <v>360</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I70" s="18"/>
-    </row>
-    <row r="71" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J70" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B70,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H70="",0,H70)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>86</v>
       </c>
@@ -3265,7 +3721,7 @@
         <v>115</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E71" s="13">
         <v>200</v>
@@ -3273,32 +3729,56 @@
       <c r="F71" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="I71" s="18"/>
-    </row>
-    <row r="72" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G71" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H71" s="13">
+        <v>200</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="J71" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B71,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H71="",0,H71)),1)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="B72" s="13">
         <v>12</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="D72" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="13">
+        <v>320</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H72" s="13">
+        <v>316</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="J72" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B72,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H72="",0,H72)),1)</f>
+        <v>173.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="E72" s="13">
-        <v>495</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="I72" s="18"/>
-    </row>
-    <row r="73" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="B73" s="13">
         <v>14</v>
@@ -3307,7 +3787,7 @@
         <v>115</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E73" s="13">
         <v>300</v>
@@ -3315,30 +3795,52 @@
       <c r="F73" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="I73" s="18"/>
-    </row>
-    <row r="74" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G73" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H73" s="13">
+        <v>301</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="J73" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B73,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H73="",0,H73)),1)</f>
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B74" s="13">
         <v>13</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E74" s="13">
         <v>342</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H74" s="13">
+        <v>341</v>
       </c>
       <c r="I74" s="18"/>
-    </row>
-    <row r="75" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J74" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B74,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H74="",0,H74)),1)</f>
+        <v>194.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>153</v>
       </c>
@@ -3346,20 +3848,32 @@
         <v>13</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E75" s="13">
         <v>200</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="I75" s="18"/>
-    </row>
-    <row r="76" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H75" s="13">
+        <v>197</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="J75" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B75,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H75="",0,H75)),1)</f>
+        <v>112.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>84</v>
       </c>
@@ -3367,20 +3881,32 @@
         <v>13</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E76" s="13">
         <v>160</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="I76" s="18"/>
-    </row>
-    <row r="77" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H76" s="13">
+        <v>160</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="J76" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B76,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H76="",0,H76)),1)</f>
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>95</v>
       </c>
@@ -3388,22 +3914,32 @@
         <v>13</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E77" s="13">
         <v>250</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H77" s="13">
+        <v>249</v>
       </c>
       <c r="I77" s="18"/>
-    </row>
-    <row r="78" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J77" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B77,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H77="",0,H77)),1)</f>
+        <v>141.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B78" s="13">
         <v>13</v>
@@ -3412,40 +3948,56 @@
         <v>159</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E78" s="13">
         <v>200</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I78" s="18"/>
-    </row>
-    <row r="79" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J78" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B78,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H78="",0,H78)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="B79" s="13">
         <v>12</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="E79" s="13">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="I79" s="18"/>
-    </row>
-    <row r="80" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H79" s="13">
+        <v>150</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J79" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B79,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H79="",0,H79)),1)</f>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="B80" s="13">
         <v>12</v>
@@ -3454,207 +4006,989 @@
         <v>115</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E80" s="13">
         <v>100</v>
       </c>
       <c r="F80" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H80" s="13">
+        <v>100</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="J80" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B80,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H80="",0,H80)),1)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="13">
+        <v>11</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" s="13">
+        <v>400</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="I81" s="18"/>
+      <c r="J81" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B81,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H81="",0,H81)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" s="13">
+        <v>11</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E82" s="13">
+        <v>200</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H82" s="13">
+        <v>200</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="J82" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B82,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H82="",0,H82)),1)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="I80" s="18"/>
-    </row>
-    <row r="81" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F81" s="18"/>
-      <c r="I81" s="18"/>
-    </row>
-    <row r="82" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F82" s="18"/>
-      <c r="I82" s="18" t="s">
+      <c r="B83" s="13">
+        <v>11</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E83" s="13">
+        <v>398</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H83" s="13">
+        <v>390</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="J83" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B83,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H83="",0,H83)),1)</f>
+        <v>214.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B84" s="13">
+        <v>11</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E84" s="13">
         <v>200</v>
       </c>
-    </row>
-    <row r="83" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F83" s="18"/>
-      <c r="I83" s="18"/>
-    </row>
-    <row r="84" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F84" s="18"/>
-      <c r="I84" s="18"/>
-    </row>
-    <row r="85" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F85" s="18"/>
-      <c r="I85" s="18"/>
-    </row>
-    <row r="86" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F86" s="18"/>
-      <c r="I86" s="18"/>
-    </row>
-    <row r="87" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F84" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H84" s="13">
+        <v>200</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="J84" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B84,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H84="",0,H84)),1)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="13">
+        <v>12</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E85" s="13">
+        <v>220</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H85" s="13">
+        <v>220</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="J85" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B85,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H85="",0,H85)),1)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" s="13">
+        <v>11</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="13">
+        <v>30</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H86" s="13">
+        <v>30</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="J86" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B86,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H86="",0,H86)),1)</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" s="13">
+        <v>12</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="13">
+        <v>60</v>
+      </c>
       <c r="F87" s="18"/>
+      <c r="G87" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87" s="13">
+        <v>60</v>
+      </c>
       <c r="I87" s="18"/>
-    </row>
-    <row r="88" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F88" s="18"/>
-      <c r="I88" s="18"/>
-    </row>
-    <row r="89" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F89" s="18"/>
+      <c r="J87" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B87,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H87="",0,H87)),1)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B88" s="13">
+        <v>12</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E88" s="13">
+        <v>50</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H88" s="13">
+        <v>50</v>
+      </c>
+      <c r="I88" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="J88" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B88,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H88="",0,H88)),1)</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" s="13">
+        <v>11</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E89" s="13">
+        <v>100</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H89" s="13">
+        <v>100</v>
+      </c>
       <c r="I89" s="18"/>
-    </row>
-    <row r="90" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F90" s="18"/>
+      <c r="J89" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B89,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H89="",0,H89)),1)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B90" s="13">
+        <v>15</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E90" s="13">
+        <v>550</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="H90" s="13">
+        <v>250</v>
+      </c>
       <c r="I90" s="18"/>
-    </row>
-    <row r="91" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J90" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B90,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H90="",0,H90)),1)</f>
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B91" s="13">
+        <v>12</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="13">
+        <v>300</v>
+      </c>
       <c r="F91" s="18"/>
-      <c r="I91" s="18"/>
-    </row>
-    <row r="92" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F92" s="18"/>
+      <c r="G91" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H91" s="13">
+        <v>297</v>
+      </c>
+      <c r="I91" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J91" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B91,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H91="",0,H91)),1)</f>
+        <v>163.30000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="13">
+        <v>13</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E92" s="13">
+        <v>10</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H92" s="13">
+        <v>10</v>
+      </c>
       <c r="I92" s="18"/>
-    </row>
-    <row r="93" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F93" s="18"/>
-      <c r="I93" s="18"/>
-    </row>
-    <row r="94" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F94" s="18"/>
-      <c r="I94" s="18"/>
-    </row>
-    <row r="95" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F95" s="18"/>
+      <c r="J92" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B92,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H92="",0,H92)),1)</f>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B93" s="13">
+        <v>12</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E93" s="13">
+        <v>310</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H93" s="13">
+        <v>310</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="J93" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B93,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H93="",0,H93)),1)</f>
+        <v>170.5</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B94" s="13">
+        <v>12</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E94" s="13">
+        <v>200</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="H94" s="13">
+        <v>200</v>
+      </c>
+      <c r="I94" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="J94" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B94,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H94="",0,H94)),1)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B95" s="13">
+        <v>14</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E95" s="13">
+        <v>300</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>217</v>
+      </c>
       <c r="I95" s="18"/>
-    </row>
-    <row r="96" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F96" s="18"/>
+      <c r="J95" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B95,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H95="",0,H95)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" s="13">
+        <v>13</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E96" s="13">
+        <v>483</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>237</v>
+      </c>
       <c r="I96" s="18"/>
-    </row>
-    <row r="97" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J96" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B96,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H96="",0,H96)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97" s="13">
+        <v>12</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" s="13">
+        <v>484</v>
+      </c>
       <c r="F97" s="18"/>
+      <c r="G97" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H97" s="13">
+        <v>484</v>
+      </c>
       <c r="I97" s="18"/>
-    </row>
-    <row r="98" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J97" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B97,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H97="",0,H97)),1)</f>
+        <v>266.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" s="13">
+        <v>12</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98" s="13">
+        <v>241</v>
+      </c>
       <c r="F98" s="18"/>
+      <c r="G98" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H98" s="13">
+        <v>241</v>
+      </c>
       <c r="I98" s="18"/>
-    </row>
-    <row r="99" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J98" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B98,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H98="",0,H98)),1)</f>
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" s="13">
+        <v>12</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="13">
+        <v>296</v>
+      </c>
       <c r="F99" s="18"/>
-      <c r="I99" s="18"/>
-    </row>
-    <row r="100" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F100" s="18"/>
+      <c r="G99" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H99" s="13">
+        <v>296</v>
+      </c>
+      <c r="I99" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J99" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B99,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H99="",0,H99)),1)</f>
+        <v>162.80000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B100" s="13">
+        <v>11</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E100" s="13">
+        <v>28</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H100" s="13">
+        <v>28</v>
+      </c>
       <c r="I100" s="18"/>
-    </row>
-    <row r="101" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F101" s="18"/>
+      <c r="J100" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B100,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H100="",0,H100)),1)</f>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="13">
+        <v>14</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E101" s="13">
+        <v>440</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>257</v>
+      </c>
       <c r="I101" s="18"/>
     </row>
-    <row r="102" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F102" s="18"/>
+    <row r="102" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B102" s="13">
+        <v>13</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E102" s="13">
+        <v>240</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>257</v>
+      </c>
       <c r="I102" s="18"/>
     </row>
-    <row r="103" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F103" s="18"/>
+    <row r="103" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B103" s="13">
+        <v>13</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E103" s="13">
+        <v>200</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>257</v>
+      </c>
       <c r="I103" s="18"/>
     </row>
-    <row r="104" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F104" s="18"/>
+    <row r="104" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="13">
+        <v>13</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E104" s="13">
+        <v>200</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>257</v>
+      </c>
       <c r="I104" s="18"/>
     </row>
-    <row r="105" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F105" s="18"/>
+    <row r="105" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B105" s="13">
+        <v>12</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E105" s="13">
+        <v>160</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>257</v>
+      </c>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F106" s="18"/>
+    <row r="106" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B106" s="13">
+        <v>12</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E106" s="13">
+        <v>200</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>257</v>
+      </c>
       <c r="I106" s="18"/>
     </row>
-    <row r="107" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F107" s="18"/>
+    <row r="107" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="13">
+        <v>14</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E107" s="13">
+        <v>160</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>257</v>
+      </c>
       <c r="I107" s="18"/>
     </row>
-    <row r="108" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F108" s="18"/>
+    <row r="108" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B108" s="13">
+        <v>14</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E108" s="13">
+        <v>188</v>
+      </c>
+      <c r="F108" s="18" t="s">
+        <v>257</v>
+      </c>
       <c r="I108" s="18"/>
     </row>
-    <row r="109" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F109" s="18"/>
-      <c r="I109" s="18"/>
-    </row>
-    <row r="110" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F110" s="18"/>
+    <row r="109" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B109" s="13">
+        <v>14</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E109" s="13">
+        <v>200</v>
+      </c>
+      <c r="F109" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="I109" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B110" s="13">
+        <v>14</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E110" s="13">
+        <v>161</v>
+      </c>
+      <c r="F110" s="18" t="s">
+        <v>257</v>
+      </c>
       <c r="I110" s="18"/>
     </row>
-    <row r="111" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F111" s="18"/>
+    <row r="111" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B111" s="13">
+        <v>13</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E111" s="13">
+        <v>235</v>
+      </c>
+      <c r="F111" s="18" t="s">
+        <v>257</v>
+      </c>
       <c r="I111" s="18"/>
     </row>
-    <row r="112" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F112" s="18"/>
+    <row r="112" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" s="13">
+        <v>14</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E112" s="13">
+        <v>60</v>
+      </c>
+      <c r="F112" s="18" t="s">
+        <v>231</v>
+      </c>
       <c r="I112" s="18"/>
     </row>
-    <row r="113" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F113" s="18"/>
+    <row r="113" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B113" s="13">
+        <v>12</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E113" s="13">
+        <v>450</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>272</v>
+      </c>
       <c r="I113" s="18"/>
     </row>
-    <row r="114" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F114" s="18"/>
+    <row r="114" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B114" s="13">
+        <v>14</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E114" s="13">
+        <v>362</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>276</v>
+      </c>
       <c r="I114" s="18"/>
     </row>
-    <row r="115" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F115" s="18"/>
       <c r="I115" s="18"/>
     </row>
-    <row r="116" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F116" s="18"/>
       <c r="I116" s="18"/>
     </row>
-    <row r="117" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F117" s="18"/>
       <c r="I117" s="18"/>
     </row>
-    <row r="118" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F118" s="18"/>
       <c r="I118" s="18"/>
     </row>
-    <row r="119" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F119" s="18"/>
       <c r="I119" s="18"/>
     </row>
-    <row r="120" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F120" s="18"/>
       <c r="I120" s="18"/>
     </row>
-    <row r="121" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F121" s="18"/>
       <c r="I121" s="18"/>
     </row>
-    <row r="122" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F122" s="18"/>
       <c r="I122" s="18"/>
     </row>
-    <row r="123" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F123" s="18"/>
       <c r="I123" s="18"/>
     </row>
-    <row r="124" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F124" s="18"/>
       <c r="I124" s="18"/>
     </row>
-    <row r="125" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F125" s="18"/>
       <c r="I125" s="18"/>
     </row>
-    <row r="126" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F126" s="18"/>
       <c r="I126" s="18"/>
     </row>
-    <row r="127" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F127" s="18"/>
       <c r="I127" s="18"/>
     </row>
-    <row r="128" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F128" s="18"/>
       <c r="I128" s="18"/>
     </row>
@@ -6482,17 +7816,11 @@
       <c r="F834" s="18"/>
       <c r="I834" s="18"/>
     </row>
-    <row r="835" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F835" s="18"/>
-      <c r="I835" s="18"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:J80">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="金冬梅"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A2:J112">
+    <sortState ref="A5:J99">
+      <sortCondition ref="A2:A101"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
@@ -6514,8 +7842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6534,7 +7862,7 @@
       </c>
       <c r="B1" s="6">
         <f>SUBTOTAL(9,E:E)</f>
-        <v>8722</v>
+        <v>17063</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -6788,10 +8116,10 @@
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2">
         <v>12</v>
@@ -6810,7 +8138,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E20" s="2">
         <v>360</v>
@@ -6823,7 +8151,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E21" s="2">
         <v>342</v>
@@ -6831,10 +8159,10 @@
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2">
         <v>12</v>
@@ -6860,102 +8188,311 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="2">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="2">
+        <v>400</v>
+      </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="2">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="2">
+        <v>400</v>
+      </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="2">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="2">
+        <v>398</v>
+      </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="2">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="2">
+        <v>361</v>
+      </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="2">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="2">
+        <v>420</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="2">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="2">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="2">
+        <v>360</v>
+      </c>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="2">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="2">
+        <v>362</v>
+      </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-    </row>
-    <row r="37" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-    </row>
-    <row r="40" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-    </row>
-    <row r="41" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-    </row>
-    <row r="42" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-    </row>
-    <row r="43" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-    </row>
-    <row r="45" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="2">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="2">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="2">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" s="2">
+        <v>14</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="2">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="2">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E37" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="2">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E38" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="2">
+        <v>14</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="2">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="2">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E41" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="2">
+        <v>14</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="2">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E43" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="2">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E44" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
     </row>
-    <row r="47" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
     </row>
-    <row r="48" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
     </row>
@@ -8452,22 +9989,32 @@
       <c r="B421" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="F9:F12"/>
+  <mergeCells count="25">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="A35:A40"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="F9:F12"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -8482,10 +10029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8833,7 +10380,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="array" aca="1" ref="B39" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A38)))&amp;""</f>
@@ -8842,7 +10389,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="array" aca="1" ref="B40" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A39)))&amp;""</f>
@@ -8851,11 +10398,20 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="array" aca="1" ref="B41" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A40)))&amp;""</f>
         <v>建芬</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f t="array" aca="1" ref="B42" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A41)))&amp;""</f>
+        <v>谈雪娥</v>
       </c>
     </row>
   </sheetData>

--- a/袜子流水表V2.xlsx
+++ b/袜子流水表V2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="姓名列表" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$147</definedName>
     <definedName name="姓名辅助">姓名列表!$B$2:$B$35</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="346">
   <si>
     <t>总金额</t>
   </si>
@@ -1120,10 +1120,6 @@
   </si>
   <si>
     <t>00016887</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.11.121</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1209,6 +1205,357 @@
   </si>
   <si>
     <t>0657080</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4262041</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋青</t>
+    <rPh sb="0" eb="1">
+      <t>pi'dan'qing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋青</t>
+    <rPh sb="0" eb="1">
+      <t>pi'dan'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色</t>
+    <rPh sb="0" eb="1">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>se</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016893</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮蛋青</t>
+    <rPh sb="0" eb="1">
+      <t>pi'dan'qin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016895</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周付仙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657080</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016896</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016897</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝静霞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉红</t>
+    <rPh sb="0" eb="1">
+      <t>fen'hog</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>许利月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20198.11.25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>常金美</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016900</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016899</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4262041</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094161</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.27</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094162</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094163</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色</t>
+    <rPh sb="0" eb="1">
+      <t>zi'se</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4262042</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张萍</t>
+    <rPh sb="0" eb="1">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ping</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色</t>
+    <rPh sb="0" eb="1">
+      <t>fen'se</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094165</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4262042</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.29</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094166</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张玉华</t>
+    <rPh sb="0" eb="1">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hua</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>驼色（毛）</t>
+    <rPh sb="0" eb="1">
+      <t>tuo'se</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mao</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.28</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094167</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>於方明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4262043</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>娟燕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094168</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094170</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094164</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00016898</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094171</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094172</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4262044</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>常金美</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094173</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094174</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>娟燕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094175</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金玉</t>
+    <rPh sb="0" eb="1">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅粉</t>
+    <rPh sb="0" eb="1">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.11.13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0657074</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚金娥</t>
+  </si>
+  <si>
+    <t>姚金娥</t>
+    <rPh sb="0" eb="1">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>e</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚金娥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4262045</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094177</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094178</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1614,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K834"/>
+  <dimension ref="A1:K837"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1641,21 +1988,21 @@
       </c>
       <c r="B1" s="8">
         <f>SUBTOTAL(9,J:J)</f>
-        <v>11383.9</v>
+        <v>16053.999999999995</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8">
         <f>SUBTOTAL(9,H:H)</f>
-        <v>20131</v>
+        <v>28279</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8">
         <f>SUBTOTAL(9,E:E)</f>
-        <v>28168</v>
+        <v>34300</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
@@ -1698,7 +2045,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>14</v>
@@ -1916,10 +2263,16 @@
       <c r="F10" s="18" t="s">
         <v>138</v>
       </c>
+      <c r="G10" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="13">
+        <v>200</v>
+      </c>
       <c r="I10" s="18"/>
       <c r="J10" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B10,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H10="",0,H10)),1)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2032,10 +2385,16 @@
       <c r="F14" s="18" t="s">
         <v>237</v>
       </c>
+      <c r="G14" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="H14" s="13">
+        <v>166</v>
+      </c>
       <c r="I14" s="18"/>
       <c r="J14" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B14,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H14="",0,H14)),1)</f>
-        <v>0</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2172,15 +2531,21 @@
         <v>179</v>
       </c>
       <c r="E19" s="13">
-        <v>495</v>
+        <v>200</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>177</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="H19" s="13">
+        <v>200</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B19,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H19="",0,H19)),1)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2264,13 +2629,18 @@
       <c r="F22" s="18" t="s">
         <v>194</v>
       </c>
+      <c r="G22" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="H22" s="13">
-        <v>80</v>
-      </c>
-      <c r="I22" s="18"/>
+        <v>244</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>314</v>
+      </c>
       <c r="J22" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B22,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H22="",0,H22)),1)</f>
-        <v>44</v>
+        <v>134.19999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2320,10 +2690,16 @@
       <c r="F24" s="18" t="s">
         <v>138</v>
       </c>
+      <c r="G24" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="H24" s="13">
+        <v>98</v>
+      </c>
       <c r="I24" s="18"/>
       <c r="J24" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B24,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H24="",0,H24)),1)</f>
-        <v>0</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2375,13 +2751,13 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H26" s="13">
         <v>360</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J26" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B26,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H26="",0,H26)),1)</f>
@@ -2492,10 +2868,16 @@
         <v>235</v>
       </c>
       <c r="F30" s="18"/>
+      <c r="G30" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="13">
+        <v>229</v>
+      </c>
       <c r="I30" s="18"/>
       <c r="J30" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B30,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H30="",0,H30)),1)</f>
-        <v>0</v>
+        <v>125.9</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2627,13 +3009,22 @@
       <c r="D35" s="13" t="s">
         <v>222</v>
       </c>
+      <c r="E35" s="13">
+        <v>140</v>
+      </c>
       <c r="F35" s="18" t="s">
         <v>217</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="H35" s="13">
+        <v>140</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B35,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H35="",0,H35)),1)</f>
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2903,6 +3294,9 @@
       <c r="F44" s="18" t="s">
         <v>100</v>
       </c>
+      <c r="G44" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="H44" s="13">
         <v>200</v>
       </c>
@@ -2965,7 +3359,7 @@
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H46" s="13">
         <v>157</v>
@@ -3144,10 +3538,18 @@
       <c r="F52" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="I52" s="18"/>
+      <c r="G52" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="H52" s="13">
+        <v>359</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>290</v>
+      </c>
       <c r="J52" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B52,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H52="",0,H52)),1)</f>
-        <v>0</v>
+        <v>211.8</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -3169,10 +3571,16 @@
       <c r="F53" s="18" t="s">
         <v>129</v>
       </c>
+      <c r="G53" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="H53" s="13">
+        <v>495</v>
+      </c>
       <c r="I53" s="18"/>
       <c r="J53" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B53,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H53="",0,H53)),1)</f>
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -3608,13 +4016,13 @@
         <v>168</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H67" s="13">
         <v>500</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J67" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B67,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H67="",0,H67)),1)</f>
@@ -3672,13 +4080,13 @@
         <v>156</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H69" s="13">
         <v>372</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J69" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B69,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H69="",0,H69)),1)</f>
@@ -3704,10 +4112,18 @@
       <c r="F70" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="I70" s="18"/>
+      <c r="G70" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="H70" s="13">
+        <v>350</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>281</v>
+      </c>
       <c r="J70" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B70,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H70="",0,H70)),1)</f>
-        <v>0</v>
+        <v>213.5</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -4047,10 +4463,18 @@
       <c r="F81" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="I81" s="18"/>
+      <c r="G81" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="H81" s="13">
+        <v>400</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>289</v>
+      </c>
       <c r="J81" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B81,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H81="",0,H81)),1)</f>
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -4172,13 +4596,13 @@
         <v>231</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H85" s="13">
         <v>220</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J85" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B85,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H85="",0,H85)),1)</f>
@@ -4457,13 +4881,13 @@
         <v>237</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H94" s="13">
         <v>200</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J94" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B94,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H94="",0,H94)),1)</f>
@@ -4489,10 +4913,18 @@
       <c r="F95" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I95" s="18"/>
+      <c r="G95" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="H95" s="13">
+        <v>300</v>
+      </c>
+      <c r="I95" s="18" t="s">
+        <v>298</v>
+      </c>
       <c r="J95" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B95,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H95="",0,H95)),1)</f>
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -4514,10 +4946,18 @@
       <c r="F96" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="I96" s="18"/>
+      <c r="G96" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="H96" s="13">
+        <v>485</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>262</v>
+      </c>
       <c r="J96" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B96,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H96="",0,H96)),1)</f>
-        <v>0</v>
+        <v>276.39999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -4659,7 +5099,19 @@
       <c r="F101" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="I101" s="18"/>
+      <c r="G101" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="H101" s="13">
+        <v>437</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="J101" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B101,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H101="",0,H101)),1)</f>
+        <v>257.8</v>
+      </c>
     </row>
     <row r="102" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
@@ -4680,7 +5132,19 @@
       <c r="F102" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="I102" s="18"/>
+      <c r="G102" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="H102" s="13">
+        <v>240</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="J102" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B102,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H102="",0,H102)),1)</f>
+        <v>136.80000000000001</v>
+      </c>
     </row>
     <row r="103" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
@@ -4701,7 +5165,17 @@
       <c r="F103" s="18" t="s">
         <v>257</v>
       </c>
+      <c r="G103" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="H103" s="13">
+        <v>193</v>
+      </c>
       <c r="I103" s="18"/>
+      <c r="J103" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B103,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H103="",0,H103)),1)</f>
+        <v>110</v>
+      </c>
     </row>
     <row r="104" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
@@ -4722,7 +5196,19 @@
       <c r="F104" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="I104" s="18"/>
+      <c r="G104" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="H104" s="13">
+        <v>200</v>
+      </c>
+      <c r="I104" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="J104" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B104,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H104="",0,H104)),1)</f>
+        <v>114</v>
+      </c>
     </row>
     <row r="105" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
@@ -4743,7 +5229,19 @@
       <c r="F105" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="I105" s="18"/>
+      <c r="G105" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="H105" s="13">
+        <v>158</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="J105" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B105,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H105="",0,H105)),1)</f>
+        <v>86.9</v>
+      </c>
     </row>
     <row r="106" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
@@ -4764,7 +5262,19 @@
       <c r="F106" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="I106" s="18"/>
+      <c r="G106" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="H106" s="13">
+        <v>200</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="J106" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B106,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H106="",0,H106)),1)</f>
+        <v>110</v>
+      </c>
     </row>
     <row r="107" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
@@ -4777,7 +5287,7 @@
         <v>93</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E107" s="13">
         <v>160</v>
@@ -4785,11 +5295,23 @@
       <c r="F107" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="I107" s="18"/>
+      <c r="G107" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="H107" s="13">
+        <v>160</v>
+      </c>
+      <c r="I107" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="J107" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B107,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H107="",0,H107)),1)</f>
+        <v>94.4</v>
+      </c>
     </row>
     <row r="108" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B108" s="13">
         <v>14</v>
@@ -4798,7 +5320,7 @@
         <v>93</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E108" s="13">
         <v>188</v>
@@ -4806,7 +5328,17 @@
       <c r="F108" s="18" t="s">
         <v>257</v>
       </c>
+      <c r="G108" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="H108" s="13">
+        <v>185</v>
+      </c>
       <c r="I108" s="18"/>
+      <c r="J108" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B108,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H108="",0,H108)),1)</f>
+        <v>109.1</v>
+      </c>
     </row>
     <row r="109" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
@@ -4819,7 +5351,7 @@
         <v>230</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E109" s="13">
         <v>200</v>
@@ -4828,12 +5360,16 @@
         <v>257</v>
       </c>
       <c r="I109" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="J109" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B109,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H109="",0,H109)),1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B110" s="13">
         <v>14</v>
@@ -4842,7 +5378,7 @@
         <v>115</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E110" s="13">
         <v>161</v>
@@ -4851,6 +5387,10 @@
         <v>257</v>
       </c>
       <c r="I110" s="18"/>
+      <c r="J110" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B110,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H110="",0,H110)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -4863,7 +5403,7 @@
         <v>255</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E111" s="13">
         <v>235</v>
@@ -4871,7 +5411,19 @@
       <c r="F111" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="I111" s="18"/>
+      <c r="G111" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="H111" s="13">
+        <v>235</v>
+      </c>
+      <c r="I111" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="J111" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B111,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H111="",0,H111)),1)</f>
+        <v>133.9</v>
+      </c>
     </row>
     <row r="112" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
@@ -4884,7 +5436,7 @@
         <v>158</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E112" s="13">
         <v>60</v>
@@ -4892,30 +5444,46 @@
       <c r="F112" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="I112" s="18"/>
-    </row>
-    <row r="113" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G112" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H112" s="13">
+        <v>60</v>
+      </c>
+      <c r="I112" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="J112" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B112,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H112="",0,H112)),1)</f>
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B113" s="13">
         <v>12</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E113" s="13">
         <v>450</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I113" s="18"/>
-    </row>
-    <row r="114" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J113" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B113,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H113="",0,H113)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>172</v>
       </c>
@@ -4926,197 +5494,1012 @@
         <v>115</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E114" s="13">
         <v>362</v>
       </c>
       <c r="F114" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="H114" s="13">
+        <v>280</v>
+      </c>
+      <c r="I114" s="18"/>
+      <c r="J114" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B114,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H114="",0,H114)),1)</f>
+        <v>165.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115" s="13">
+        <v>13</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D115" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="I114" s="18"/>
-    </row>
-    <row r="115" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F115" s="18"/>
-      <c r="I115" s="18"/>
-    </row>
-    <row r="116" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F116" s="18"/>
-      <c r="I116" s="18"/>
-    </row>
-    <row r="117" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F117" s="18"/>
-      <c r="I117" s="18"/>
-    </row>
-    <row r="118" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F118" s="18"/>
+      <c r="E115" s="13">
+        <v>100</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="H115" s="13">
+        <v>100</v>
+      </c>
+      <c r="I115" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="J115" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B115,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H115="",0,H115)),1)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B116" s="13">
+        <v>14</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E116" s="13">
+        <v>200</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="H116" s="13">
+        <v>199</v>
+      </c>
+      <c r="I116" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="J116" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B116,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H116="",0,H116)),1)</f>
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B117" s="13">
+        <v>13</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E117" s="13">
+        <v>170</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="H117" s="13">
+        <v>170</v>
+      </c>
+      <c r="I117" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="J117" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B117,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H117="",0,H117)),1)</f>
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B118" s="13">
+        <v>13</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E118" s="13">
+        <v>220</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>288</v>
+      </c>
       <c r="I118" s="18"/>
-    </row>
-    <row r="119" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F119" s="18"/>
-      <c r="I119" s="18"/>
-    </row>
-    <row r="120" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F120" s="18"/>
+      <c r="J118" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B118,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H118="",0,H118)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" s="13">
+        <v>14</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E119" s="13">
+        <v>300</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="H119" s="13">
+        <v>301</v>
+      </c>
+      <c r="I119" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="J119" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B119,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H119="",0,H119)),1)</f>
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="13">
+        <v>14</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E120" s="13">
+        <v>200</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="H120" s="13">
+        <v>198</v>
+      </c>
       <c r="I120" s="18"/>
-    </row>
-    <row r="121" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F121" s="18"/>
-      <c r="I121" s="18"/>
-    </row>
-    <row r="122" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F122" s="18"/>
+      <c r="J120" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B120,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H120="",0,H120)),1)</f>
+        <v>116.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B121" s="13">
+        <v>12</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E121" s="13">
+        <v>360</v>
+      </c>
+      <c r="F121" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H121" s="13">
+        <v>360</v>
+      </c>
+      <c r="I121" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="J121" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B121,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H121="",0,H121)),1)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" s="13">
+        <v>14</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E122" s="13">
+        <v>20</v>
+      </c>
+      <c r="F122" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="H122" s="13">
+        <v>20</v>
+      </c>
       <c r="I122" s="18"/>
-    </row>
-    <row r="123" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F123" s="18"/>
-      <c r="I123" s="18"/>
-    </row>
-    <row r="124" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F124" s="18"/>
+      <c r="J122" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B122,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H122="",0,H122)),1)</f>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B123" s="13">
+        <v>14</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E123" s="13">
+        <v>160</v>
+      </c>
+      <c r="F123" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="H123" s="13">
+        <v>160</v>
+      </c>
+      <c r="I123" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="J123" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B123,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H123="",0,H123)),1)</f>
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B124" s="13">
+        <v>12</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E124" s="13">
+        <v>200</v>
+      </c>
+      <c r="F124" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H124" s="13">
+        <v>199</v>
+      </c>
       <c r="I124" s="18"/>
-    </row>
-    <row r="125" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F125" s="18"/>
-      <c r="I125" s="18"/>
-    </row>
-    <row r="126" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F126" s="18"/>
-      <c r="I126" s="18"/>
-    </row>
-    <row r="127" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F127" s="18"/>
+      <c r="J124" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B124,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H124="",0,H124)),1)</f>
+        <v>109.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" s="13">
+        <v>12</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E125" s="13">
+        <v>60</v>
+      </c>
+      <c r="F125" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="H125" s="13">
+        <v>60</v>
+      </c>
+      <c r="I125" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="J125" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B125,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H125="",0,H125)),1)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B126" s="13">
+        <v>14</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E126" s="13">
+        <v>90</v>
+      </c>
+      <c r="F126" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H126" s="13">
+        <v>90</v>
+      </c>
+      <c r="I126" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="J126" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B126,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H126="",0,H126)),1)</f>
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" s="13">
+        <v>13</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E127" s="13">
+        <v>360</v>
+      </c>
+      <c r="F127" s="18" t="s">
+        <v>305</v>
+      </c>
       <c r="I127" s="18"/>
-    </row>
-    <row r="128" spans="1:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F128" s="18"/>
-      <c r="I128" s="18"/>
-    </row>
-    <row r="129" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F129" s="18"/>
+      <c r="J127" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B127,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H127="",0,H127)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B128" s="13">
+        <v>13</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E128" s="13">
+        <v>50</v>
+      </c>
+      <c r="F128" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="H128" s="13">
+        <v>50</v>
+      </c>
+      <c r="I128" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J128" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B128,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H128="",0,H128)),1)</f>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B129" s="13">
+        <v>13</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E129" s="13">
+        <v>440</v>
+      </c>
+      <c r="F129" s="18" t="s">
+        <v>305</v>
+      </c>
       <c r="I129" s="18"/>
-    </row>
-    <row r="130" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F130" s="18"/>
+      <c r="J129" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B129,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H129="",0,H129)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B130" s="13">
+        <v>12</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E130" s="13">
+        <v>58</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="H130" s="13">
+        <v>58</v>
+      </c>
       <c r="I130" s="18"/>
-    </row>
-    <row r="131" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F131" s="18"/>
+      <c r="J130" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B130,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H130="",0,H130)),1)</f>
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B131" s="13">
+        <v>13</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E131" s="13">
+        <v>300</v>
+      </c>
+      <c r="F131" s="18" t="s">
+        <v>318</v>
+      </c>
       <c r="I131" s="18"/>
-    </row>
-    <row r="132" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F132" s="18"/>
+      <c r="J131" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B131,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H131="",0,H131)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B132" s="13">
+        <v>12</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E132" s="13">
+        <v>280</v>
+      </c>
+      <c r="F132" s="18" t="s">
+        <v>318</v>
+      </c>
       <c r="I132" s="18"/>
-    </row>
-    <row r="133" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F133" s="18"/>
+      <c r="J132" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B132,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H132="",0,H132)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B133" s="13">
+        <v>11</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E133" s="13">
+        <v>480</v>
+      </c>
+      <c r="F133" s="18" t="s">
+        <v>318</v>
+      </c>
       <c r="I133" s="18"/>
-    </row>
-    <row r="134" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F134" s="18"/>
+      <c r="J133" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B133,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H133="",0,H133)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B134" s="13">
+        <v>12</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E134" s="13">
+        <v>200</v>
+      </c>
+      <c r="F134" s="18" t="s">
+        <v>318</v>
+      </c>
       <c r="I134" s="18"/>
-    </row>
-    <row r="135" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F135" s="18"/>
+      <c r="J134" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B134,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H134="",0,H134)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B135" s="13">
+        <v>12</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E135" s="13">
+        <v>200</v>
+      </c>
+      <c r="F135" s="18" t="s">
+        <v>327</v>
+      </c>
       <c r="I135" s="18"/>
-    </row>
-    <row r="136" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F136" s="18"/>
-      <c r="I136" s="18"/>
-    </row>
-    <row r="137" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F137" s="18"/>
+      <c r="J135" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B135,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H135="",0,H135)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" s="13">
+        <v>13</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E136" s="13">
+        <v>120</v>
+      </c>
+      <c r="F136" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="H136" s="13">
+        <v>120</v>
+      </c>
+      <c r="I136" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="J136" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B136,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H136="",0,H136)),1)</f>
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B137" s="13">
+        <v>13</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E137" s="13">
+        <v>109</v>
+      </c>
+      <c r="F137" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="H137" s="13">
+        <v>109</v>
+      </c>
       <c r="I137" s="18"/>
-    </row>
-    <row r="138" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F138" s="18"/>
+      <c r="J137" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B137,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H137="",0,H137)),1)</f>
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B138" s="13">
+        <v>14</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E138" s="13">
+        <v>400</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>327</v>
+      </c>
       <c r="I138" s="18"/>
-    </row>
-    <row r="139" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F139" s="18"/>
+      <c r="J138" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B138,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H138="",0,H138)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B139" s="13">
+        <v>12</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E139" s="13">
+        <v>100</v>
+      </c>
+      <c r="F139" s="18" t="s">
+        <v>327</v>
+      </c>
       <c r="I139" s="18"/>
     </row>
-    <row r="140" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F140" s="18"/>
+    <row r="140" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B140" s="13">
+        <v>12</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E140" s="13">
+        <v>200</v>
+      </c>
+      <c r="F140" s="18" t="s">
+        <v>327</v>
+      </c>
       <c r="I140" s="18"/>
     </row>
-    <row r="141" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F141" s="18"/>
+    <row r="141" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B141" s="13">
+        <v>13</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E141" s="13">
+        <v>200</v>
+      </c>
+      <c r="F141" s="18" t="s">
+        <v>327</v>
+      </c>
       <c r="I141" s="18"/>
     </row>
-    <row r="142" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F142" s="18"/>
+    <row r="142" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B142" s="13">
+        <v>13</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E142" s="13">
+        <v>60</v>
+      </c>
+      <c r="F142" s="18" t="s">
+        <v>327</v>
+      </c>
       <c r="I142" s="18"/>
     </row>
-    <row r="143" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F143" s="18"/>
+    <row r="143" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B143" s="13">
+        <v>13</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E143" s="13">
+        <v>140</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>318</v>
+      </c>
       <c r="I143" s="18"/>
     </row>
-    <row r="144" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F144" s="18"/>
+    <row r="144" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B144" s="13">
+        <v>12</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E144" s="13">
+        <v>100</v>
+      </c>
+      <c r="F144" s="18" t="s">
+        <v>337</v>
+      </c>
       <c r="I144" s="18"/>
-    </row>
-    <row r="145" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F145" s="18"/>
-      <c r="I145" s="18"/>
-    </row>
-    <row r="146" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F146" s="18"/>
+      <c r="J144" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B144,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H144="",0,H144)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B145" s="13">
+        <v>13</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E145" s="13">
+        <v>20</v>
+      </c>
+      <c r="F145" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="H145" s="13">
+        <v>20</v>
+      </c>
+      <c r="I145" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="J145" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B145,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H145="",0,H145)),1)</f>
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B146" s="13">
+        <v>13</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E146" s="13">
+        <v>140</v>
+      </c>
+      <c r="F146" s="18" t="s">
+        <v>327</v>
+      </c>
       <c r="I146" s="18"/>
-    </row>
-    <row r="147" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F147" s="18"/>
+      <c r="J146" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B146,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H146="",0,H146)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B147" s="13">
+        <v>11</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E147" s="13">
+        <v>50</v>
+      </c>
+      <c r="F147" s="18" t="s">
+        <v>343</v>
+      </c>
       <c r="I147" s="18"/>
-    </row>
-    <row r="148" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F148" s="18"/>
+      <c r="J147" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B147,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H147="",0,H147)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B148" s="13">
+        <v>11</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E148" s="13">
+        <v>200</v>
+      </c>
+      <c r="F148" s="18" t="s">
+        <v>343</v>
+      </c>
       <c r="I148" s="18"/>
     </row>
-    <row r="149" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F149" s="18"/>
       <c r="I149" s="18"/>
     </row>
-    <row r="150" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F150" s="18"/>
       <c r="I150" s="18"/>
     </row>
-    <row r="151" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F151" s="18"/>
       <c r="I151" s="18"/>
     </row>
-    <row r="152" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F152" s="18"/>
       <c r="I152" s="18"/>
     </row>
-    <row r="153" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F153" s="18"/>
       <c r="I153" s="18"/>
     </row>
-    <row r="154" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F154" s="18"/>
       <c r="I154" s="18"/>
     </row>
-    <row r="155" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F155" s="18"/>
       <c r="I155" s="18"/>
     </row>
-    <row r="156" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F156" s="18"/>
       <c r="I156" s="18"/>
     </row>
-    <row r="157" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F157" s="18"/>
       <c r="I157" s="18"/>
     </row>
-    <row r="158" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F158" s="18"/>
       <c r="I158" s="18"/>
     </row>
-    <row r="159" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F159" s="18"/>
       <c r="I159" s="18"/>
     </row>
-    <row r="160" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F160" s="18"/>
       <c r="I160" s="18"/>
     </row>
@@ -7816,8 +9199,20 @@
       <c r="F834" s="18"/>
       <c r="I834" s="18"/>
     </row>
+    <row r="835" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F835" s="18"/>
+      <c r="I835" s="18"/>
+    </row>
+    <row r="836" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F836" s="18"/>
+      <c r="I836" s="18"/>
+    </row>
+    <row r="837" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F837" s="18"/>
+      <c r="I837" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:J112">
+  <autoFilter ref="A2:J147">
     <sortState ref="A5:J99">
       <sortCondition ref="A2:A101"/>
     </sortState>
@@ -7842,8 +9237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F421"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7862,7 +9257,7 @@
       </c>
       <c r="B1" s="6">
         <f>SUBTOTAL(9,E:E)</f>
-        <v>17063</v>
+        <v>22965</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -8392,7 +9787,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E38" s="2">
         <v>360</v>
@@ -8426,10 +9821,10 @@
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C41" s="2">
         <v>14</v>
@@ -8461,7 +9856,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E43" s="2">
         <v>450</v>
@@ -8474,89 +9869,244 @@
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E44" s="2">
         <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="2">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E45" s="2">
+        <v>360</v>
+      </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="2">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" s="2">
+        <v>110</v>
+      </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="2">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E47" s="2">
+        <v>360</v>
+      </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-    </row>
-    <row r="49" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-    </row>
-    <row r="51" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-    </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-    </row>
-    <row r="53" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-    </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-    </row>
-    <row r="55" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
-    </row>
-    <row r="56" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-    </row>
-    <row r="57" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
-    </row>
-    <row r="58" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-    </row>
-    <row r="59" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-    </row>
-    <row r="60" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="2">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E48" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C49" s="2">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E49" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="2">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E50" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="2">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E51" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C52" s="2">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="2">
+        <v>11</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E53" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="2">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C55" s="2">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E55" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="2">
+        <v>14</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E56" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="2">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E57" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C58" s="2">
+        <v>11</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="2">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
     </row>
-    <row r="61" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
     </row>
-    <row r="62" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
     </row>
-    <row r="63" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
     </row>
-    <row r="64" spans="1:2" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="10"/>
     </row>
@@ -9989,18 +11539,21 @@
       <c r="B421" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B24:B26"/>
+  <mergeCells count="35">
     <mergeCell ref="B35:B40"/>
     <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="F9:F12"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B21"/>
@@ -10008,13 +11561,20 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -10029,10 +11589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10414,6 +11974,22 @@
         <v>谈雪娥</v>
       </c>
     </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/袜子流水表V2.xlsx
+++ b/袜子流水表V2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="姓名列表" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$157</definedName>
     <definedName name="姓名辅助">姓名列表!$B$2:$B$35</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="365">
   <si>
     <t>总金额</t>
   </si>
@@ -1556,6 +1556,82 @@
   </si>
   <si>
     <t>00094178</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾胜华</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4262045</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00094180</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995007</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995009</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995012</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995013</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王雪芬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0099</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995014</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995010</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995016</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1677,10 +1753,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1963,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K837"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I147" sqref="I147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1988,21 +2064,21 @@
       </c>
       <c r="B1" s="8">
         <f>SUBTOTAL(9,J:J)</f>
-        <v>16053.999999999995</v>
+        <v>18104.499999999996</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8">
         <f>SUBTOTAL(9,H:H)</f>
-        <v>28279</v>
+        <v>31911</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8">
         <f>SUBTOTAL(9,E:E)</f>
-        <v>34300</v>
+        <v>35661</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
@@ -4372,10 +4448,16 @@
       <c r="F78" s="18" t="s">
         <v>194</v>
       </c>
+      <c r="G78" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="H78" s="13">
+        <v>200</v>
+      </c>
       <c r="I78" s="18"/>
       <c r="J78" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B78,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H78="",0,H78)),1)</f>
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -5359,12 +5441,18 @@
       <c r="F109" s="18" t="s">
         <v>257</v>
       </c>
+      <c r="G109" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="H109" s="13">
+        <v>200</v>
+      </c>
       <c r="I109" s="18" t="s">
         <v>262</v>
       </c>
       <c r="J109" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B109,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H109="",0,H109)),1)</f>
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -5386,10 +5474,18 @@
       <c r="F110" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="I110" s="18"/>
+      <c r="G110" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="H110" s="13">
+        <v>161</v>
+      </c>
+      <c r="I110" s="18" t="s">
+        <v>355</v>
+      </c>
       <c r="J110" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B110,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H110="",0,H110)),1)</f>
-        <v>0</v>
+        <v>94.9</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -5477,10 +5573,18 @@
       <c r="F113" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="I113" s="18"/>
+      <c r="G113" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="H113" s="13">
+        <v>444</v>
+      </c>
+      <c r="I113" s="18" t="s">
+        <v>352</v>
+      </c>
       <c r="J113" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B113,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H113="",0,H113)),1)</f>
-        <v>0</v>
+        <v>244.2</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -5502,13 +5606,18 @@
       <c r="F114" s="18" t="s">
         <v>275</v>
       </c>
+      <c r="G114" s="13" t="s">
+        <v>351</v>
+      </c>
       <c r="H114" s="13">
-        <v>280</v>
-      </c>
-      <c r="I114" s="18"/>
+        <v>362</v>
+      </c>
+      <c r="I114" s="18" t="s">
+        <v>356</v>
+      </c>
       <c r="J114" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B114,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H114="",0,H114)),1)</f>
-        <v>165.2</v>
+        <v>213.5</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -5912,10 +6021,18 @@
       <c r="F127" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="I127" s="18"/>
+      <c r="G127" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="H127" s="13">
+        <v>360</v>
+      </c>
+      <c r="I127" s="18" t="s">
+        <v>350</v>
+      </c>
       <c r="J127" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B127,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H127="",0,H127)),1)</f>
-        <v>0</v>
+        <v>205.2</v>
       </c>
     </row>
     <row r="128" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -6076,10 +6193,18 @@
       <c r="F133" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="I133" s="18"/>
+      <c r="G133" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="H133" s="13">
+        <v>480</v>
+      </c>
+      <c r="I133" s="18" t="s">
+        <v>357</v>
+      </c>
       <c r="J133" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B133,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H133="",0,H133)),1)</f>
-        <v>0</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -6101,10 +6226,18 @@
       <c r="F134" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="I134" s="18"/>
+      <c r="G134" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="H134" s="13">
+        <v>200</v>
+      </c>
+      <c r="I134" s="18" t="s">
+        <v>353</v>
+      </c>
       <c r="J134" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B134,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H134="",0,H134)),1)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -6215,10 +6348,18 @@
       <c r="F138" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="I138" s="18"/>
+      <c r="G138" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="H138" s="13">
+        <v>401</v>
+      </c>
+      <c r="I138" s="18" t="s">
+        <v>361</v>
+      </c>
       <c r="J138" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B138,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H138="",0,H138)),1)</f>
-        <v>0</v>
+        <v>236.5</v>
       </c>
     </row>
     <row r="139" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -6240,7 +6381,19 @@
       <c r="F139" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="I139" s="18"/>
+      <c r="G139" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="H139" s="13">
+        <v>100</v>
+      </c>
+      <c r="I139" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="J139" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B139,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H139="",0,H139)),1)</f>
+        <v>55</v>
+      </c>
     </row>
     <row r="140" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
@@ -6261,7 +6414,17 @@
       <c r="F140" s="18" t="s">
         <v>327</v>
       </c>
+      <c r="G140" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="H140" s="13">
+        <v>200</v>
+      </c>
       <c r="I140" s="18"/>
+      <c r="J140" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B140,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H140="",0,H140)),1)</f>
+        <v>110</v>
+      </c>
     </row>
     <row r="141" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
@@ -6283,6 +6446,10 @@
         <v>327</v>
       </c>
       <c r="I141" s="18"/>
+      <c r="J141" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B141,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H141="",0,H141)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
@@ -6345,10 +6512,18 @@
       <c r="F144" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="I144" s="18"/>
+      <c r="G144" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="H144" s="13">
+        <v>100</v>
+      </c>
+      <c r="I144" s="18" t="s">
+        <v>354</v>
+      </c>
       <c r="J144" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B144,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H144="",0,H144)),1)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -6403,10 +6578,16 @@
       <c r="F146" s="18" t="s">
         <v>327</v>
       </c>
+      <c r="G146" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="H146" s="13">
+        <v>140</v>
+      </c>
       <c r="I146" s="18"/>
       <c r="J146" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B146,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H146="",0,H146)),1)</f>
-        <v>0</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="147" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -6428,10 +6609,18 @@
       <c r="F147" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="I147" s="18"/>
+      <c r="G147" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="H147" s="13">
+        <v>50</v>
+      </c>
+      <c r="I147" s="18" t="s">
+        <v>364</v>
+      </c>
       <c r="J147" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B147,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H147="",0,H147)),1)</f>
-        <v>0</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="148" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -6454,116 +6643,334 @@
         <v>343</v>
       </c>
       <c r="I148" s="18"/>
+      <c r="J148" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B148,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H148="",0,H148)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F149" s="18"/>
+      <c r="A149" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B149" s="13">
+        <v>13</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E149" s="13">
+        <v>200</v>
+      </c>
+      <c r="F149" s="18" t="s">
+        <v>347</v>
+      </c>
       <c r="I149" s="18"/>
+      <c r="J149" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B149,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H149="",0,H149)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F150" s="18"/>
+      <c r="A150" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B150" s="13">
+        <v>11</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E150" s="13">
+        <v>214</v>
+      </c>
+      <c r="F150" s="18" t="s">
+        <v>343</v>
+      </c>
       <c r="I150" s="18"/>
+      <c r="J150" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B150,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H150="",0,H150)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F151" s="18"/>
-      <c r="I151" s="18"/>
+      <c r="A151" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B151" s="13">
+        <v>13</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E151" s="13">
+        <v>240</v>
+      </c>
+      <c r="F151" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="H151" s="13">
+        <v>240</v>
+      </c>
+      <c r="I151" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="J151" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B151,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H151="",0,H151)),1)</f>
+        <v>136.80000000000001</v>
+      </c>
     </row>
     <row r="152" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B152" s="13">
+        <v>11</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="E152" s="13">
+        <v>200</v>
+      </c>
       <c r="F152" s="18"/>
       <c r="I152" s="18"/>
+      <c r="J152" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B152,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H152="",0,H152)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B153" s="13">
+        <v>11</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="E153" s="13">
+        <v>127</v>
+      </c>
       <c r="F153" s="18"/>
       <c r="I153" s="18"/>
+      <c r="J153" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B153,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H153="",0,H153)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B154" s="13">
+        <v>11</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="E154" s="13">
+        <v>100</v>
+      </c>
       <c r="F154" s="18"/>
       <c r="I154" s="18"/>
+      <c r="J154" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B154,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H154="",0,H154)),1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F155" s="18"/>
+      <c r="A155" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B155" s="13">
+        <v>12</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="E155" s="13">
+        <v>200</v>
+      </c>
+      <c r="F155" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G155" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="H155" s="13">
+        <v>194</v>
+      </c>
       <c r="I155" s="18"/>
+      <c r="J155" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B155,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H155="",0,H155)),1)</f>
+        <v>106.7</v>
+      </c>
     </row>
     <row r="156" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F156" s="18"/>
+      <c r="A156" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B156" s="13">
+        <v>13</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="E156" s="13">
+        <v>30</v>
+      </c>
+      <c r="F156" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="H156" s="13">
+        <v>30</v>
+      </c>
       <c r="I156" s="18"/>
+      <c r="J156" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B156,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H156="",0,H156)),1)</f>
+        <v>17.100000000000001</v>
+      </c>
     </row>
     <row r="157" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B157" s="13">
+        <v>11</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="E157" s="13">
+        <v>50</v>
+      </c>
       <c r="F157" s="18"/>
-      <c r="I157" s="18"/>
+      <c r="G157" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="H157" s="13">
+        <v>50</v>
+      </c>
+      <c r="I157" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="J157" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B157,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H157="",0,H157)),1)</f>
+        <v>27.5</v>
+      </c>
     </row>
     <row r="158" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F158" s="18"/>
       <c r="I158" s="18"/>
+      <c r="J158" s="12"/>
     </row>
     <row r="159" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F159" s="18"/>
       <c r="I159" s="18"/>
+      <c r="J159" s="12"/>
     </row>
     <row r="160" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F160" s="18"/>
       <c r="I160" s="18"/>
-    </row>
-    <row r="161" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J160" s="12"/>
+    </row>
+    <row r="161" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F161" s="18"/>
       <c r="I161" s="18"/>
-    </row>
-    <row r="162" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J161" s="12"/>
+    </row>
+    <row r="162" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F162" s="18"/>
       <c r="I162" s="18"/>
-    </row>
-    <row r="163" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J162" s="12"/>
+    </row>
+    <row r="163" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F163" s="18"/>
       <c r="I163" s="18"/>
     </row>
-    <row r="164" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F164" s="18"/>
       <c r="I164" s="18"/>
     </row>
-    <row r="165" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F165" s="18"/>
       <c r="I165" s="18"/>
     </row>
-    <row r="166" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F166" s="18"/>
       <c r="I166" s="18"/>
     </row>
-    <row r="167" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F167" s="18"/>
       <c r="I167" s="18"/>
     </row>
-    <row r="168" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F168" s="18"/>
       <c r="I168" s="18"/>
     </row>
-    <row r="169" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F169" s="18"/>
       <c r="I169" s="18"/>
     </row>
-    <row r="170" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F170" s="18"/>
       <c r="I170" s="18"/>
     </row>
-    <row r="171" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F171" s="18"/>
       <c r="I171" s="18"/>
     </row>
-    <row r="172" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F172" s="18"/>
       <c r="I172" s="18"/>
     </row>
-    <row r="173" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F173" s="18"/>
       <c r="I173" s="18"/>
     </row>
-    <row r="174" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F174" s="18"/>
       <c r="I174" s="18"/>
     </row>
-    <row r="175" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F175" s="18"/>
       <c r="I175" s="18"/>
     </row>
-    <row r="176" spans="6:9" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="6:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F176" s="18"/>
       <c r="I176" s="18"/>
     </row>
@@ -9212,7 +9619,7 @@
       <c r="I837" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J147">
+  <autoFilter ref="A2:J157">
     <sortState ref="A5:J99">
       <sortCondition ref="A2:A101"/>
     </sortState>
@@ -9237,8 +9644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F421"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9257,7 +9664,7 @@
       </c>
       <c r="B1" s="6">
         <f>SUBTOTAL(9,E:E)</f>
-        <v>22965</v>
+        <v>23445</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -9278,10 +9685,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="2">
@@ -9321,7 +9728,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>120</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -9364,10 +9771,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C9" s="2">
@@ -9382,8 +9789,8 @@
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2">
         <v>15</v>
       </c>
@@ -9396,8 +9803,8 @@
       <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="2">
         <v>14</v>
       </c>
@@ -9410,8 +9817,8 @@
       <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="2">
         <v>13</v>
       </c>
@@ -9424,10 +9831,10 @@
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C13" s="2">
@@ -9441,8 +9848,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2">
         <v>11</v>
       </c>
@@ -9454,10 +9861,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>156</v>
       </c>
       <c r="C15" s="2">
@@ -9471,8 +9878,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2">
         <v>14</v>
       </c>
@@ -9484,8 +9891,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="2">
         <v>13</v>
       </c>
@@ -9497,8 +9904,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="2">
         <v>13</v>
       </c>
@@ -9510,10 +9917,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>177</v>
       </c>
       <c r="C19" s="2">
@@ -9527,8 +9934,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="2">
         <v>13</v>
       </c>
@@ -9540,8 +9947,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="2">
         <v>13</v>
       </c>
@@ -9553,10 +9960,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>189</v>
       </c>
       <c r="C22" s="2">
@@ -9570,8 +9977,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="2">
         <v>13</v>
       </c>
@@ -9583,10 +9990,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>202</v>
       </c>
       <c r="C24" s="2">
@@ -9600,8 +10007,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="2">
         <v>11</v>
       </c>
@@ -9613,8 +10020,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2">
         <v>11</v>
       </c>
@@ -9626,10 +10033,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>217</v>
       </c>
       <c r="C27" s="2">
@@ -9643,8 +10050,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="2">
         <v>12</v>
       </c>
@@ -9656,8 +10063,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="2">
         <v>11</v>
       </c>
@@ -9669,8 +10076,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="2">
         <v>14</v>
       </c>
@@ -9682,8 +10089,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="2">
         <v>12</v>
       </c>
@@ -9695,8 +10102,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="2">
         <v>15</v>
       </c>
@@ -9708,10 +10115,10 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>237</v>
       </c>
       <c r="C33" s="2">
@@ -9725,8 +10132,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="2">
         <v>12</v>
       </c>
@@ -9738,10 +10145,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>257</v>
       </c>
       <c r="C35" s="2">
@@ -9755,8 +10162,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="2">
         <v>13</v>
       </c>
@@ -9768,8 +10175,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="2">
         <v>13</v>
       </c>
@@ -9781,8 +10188,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="2">
         <v>13</v>
       </c>
@@ -9794,8 +10201,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="2">
         <v>14</v>
       </c>
@@ -9807,8 +10214,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="2">
         <v>14</v>
       </c>
@@ -9820,10 +10227,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>271</v>
       </c>
       <c r="C41" s="2">
@@ -9837,8 +10244,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="2">
         <v>14</v>
       </c>
@@ -9850,8 +10257,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="2">
         <v>12</v>
       </c>
@@ -9863,8 +10270,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="2">
         <v>13</v>
       </c>
@@ -9876,10 +10283,10 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="20" t="s">
         <v>277</v>
       </c>
       <c r="C45" s="2">
@@ -9893,8 +10300,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="2">
         <v>14</v>
       </c>
@@ -9906,8 +10313,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="2">
         <v>12</v>
       </c>
@@ -9919,8 +10326,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="2">
         <v>13</v>
       </c>
@@ -9932,10 +10339,10 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="20" t="s">
         <v>305</v>
       </c>
       <c r="C49" s="2">
@@ -9949,8 +10356,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="2">
         <v>13</v>
       </c>
@@ -9962,8 +10369,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="2">
         <v>13</v>
       </c>
@@ -9975,10 +10382,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="20" t="s">
         <v>318</v>
       </c>
       <c r="C52" s="2">
@@ -9992,8 +10399,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="2">
         <v>11</v>
       </c>
@@ -10005,8 +10412,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="2">
         <v>12</v>
       </c>
@@ -10018,10 +10425,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>327</v>
       </c>
       <c r="C55" s="2">
@@ -10035,8 +10442,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="21"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="2">
         <v>14</v>
       </c>
@@ -10048,8 +10455,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="2">
         <v>12</v>
       </c>
@@ -10061,10 +10468,10 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="20" t="s">
         <v>343</v>
       </c>
       <c r="C58" s="2">
@@ -10078,8 +10485,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="2">
         <v>13</v>
       </c>
@@ -10091,8 +10498,19 @@
       </c>
     </row>
     <row r="60" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
+      <c r="A60" s="9" t="s">
+        <v>348</v>
+      </c>
       <c r="B60" s="10"/>
+      <c r="C60" s="2">
+        <v>11</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E60" s="2">
+        <v>480</v>
+      </c>
     </row>
     <row r="61" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
@@ -11540,12 +11958,27 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A27:A32"/>
@@ -11554,27 +11987,12 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -11611,7 +12029,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f t="array" aca="1" ref="B2" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A1)))&amp;""</f>
-        <v>许利月</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -11620,7 +12038,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f t="array" aca="1" ref="B3" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A2)))&amp;""</f>
-        <v xml:space="preserve">王玲芬 </v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -11629,7 +12047,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="array" aca="1" ref="B4" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A3)))&amp;""</f>
-        <v>常金美</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -11638,7 +12056,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f t="array" aca="1" ref="B5" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A4)))&amp;""</f>
-        <v>周付仙</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -11647,7 +12065,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f t="array" aca="1" ref="B6" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A5)))&amp;""</f>
-        <v>於方明</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -11656,7 +12074,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f t="array" aca="1" ref="B7" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A6)))&amp;""</f>
-        <v>宓金仙</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -11665,7 +12083,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f t="array" aca="1" ref="B8" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A7)))&amp;""</f>
-        <v>圣方</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -11674,7 +12092,7 @@
       </c>
       <c r="B9" s="1" t="str">
         <f t="array" aca="1" ref="B9" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A8)))&amp;""</f>
-        <v>徐美仙</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -11683,7 +12101,7 @@
       </c>
       <c r="B10" s="1" t="str">
         <f t="array" aca="1" ref="B10" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A9)))&amp;""</f>
-        <v>金冬梅</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -11692,7 +12110,7 @@
       </c>
       <c r="B11" s="1" t="str">
         <f t="array" aca="1" ref="B11" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A10)))&amp;""</f>
-        <v>朱美仙</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -11701,7 +12119,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="array" aca="1" ref="B12" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A11)))&amp;""</f>
-        <v>妙仙</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -11710,7 +12128,7 @@
       </c>
       <c r="B13" s="1" t="str">
         <f t="array" aca="1" ref="B13" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A12)))&amp;""</f>
-        <v>汪阿娟</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -11719,7 +12137,7 @@
       </c>
       <c r="B14" s="1" t="str">
         <f t="array" aca="1" ref="B14" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A13)))&amp;""</f>
-        <v>许金仙</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -11728,7 +12146,7 @@
       </c>
       <c r="B15" s="1" t="str">
         <f t="array" aca="1" ref="B15" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A14)))&amp;""</f>
-        <v>朱妙金</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -11737,7 +12155,7 @@
       </c>
       <c r="B16" s="1" t="str">
         <f t="array" aca="1" ref="B16" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A15)))&amp;""</f>
-        <v>有仙</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -11746,7 +12164,7 @@
       </c>
       <c r="B17" s="1" t="str">
         <f t="array" aca="1" ref="B17" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A16)))&amp;""</f>
-        <v>王雪芬</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -11755,7 +12173,7 @@
       </c>
       <c r="B18" s="1" t="str">
         <f t="array" aca="1" ref="B18" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A17)))&amp;""</f>
-        <v>朱金仙</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -11764,7 +12182,7 @@
       </c>
       <c r="B19" s="1" t="str">
         <f t="array" aca="1" ref="B19" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A18)))&amp;""</f>
-        <v>祝静霞</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -11773,7 +12191,7 @@
       </c>
       <c r="B20" s="1" t="str">
         <f t="array" aca="1" ref="B20" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A19)))&amp;""</f>
-        <v>金玉</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -11782,7 +12200,7 @@
       </c>
       <c r="B21" s="1" t="str">
         <f t="array" aca="1" ref="B21" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A20)))&amp;""</f>
-        <v>群红</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -11791,7 +12209,7 @@
       </c>
       <c r="B22" s="1" t="str">
         <f t="array" aca="1" ref="B22" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A21)))&amp;""</f>
-        <v>张玉华</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -11800,7 +12218,7 @@
       </c>
       <c r="B23" s="1" t="str">
         <f t="array" aca="1" ref="B23" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A22)))&amp;""</f>
-        <v>浦亚梅</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -11809,7 +12227,7 @@
       </c>
       <c r="B24" s="1" t="str">
         <f t="array" aca="1" ref="B24" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A23)))&amp;""</f>
-        <v>顾胜华</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -11818,7 +12236,7 @@
       </c>
       <c r="B25" s="1" t="str">
         <f t="array" aca="1" ref="B25" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A24)))&amp;""</f>
-        <v>张丹</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -11827,7 +12245,7 @@
       </c>
       <c r="B26" s="1" t="str">
         <f t="array" aca="1" ref="B26" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A25)))&amp;""</f>
-        <v>杭褚芬</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -11836,7 +12254,7 @@
       </c>
       <c r="B27" s="1" t="str">
         <f t="array" aca="1" ref="B27" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A26)))&amp;""</f>
-        <v>小艳</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -11845,7 +12263,7 @@
       </c>
       <c r="B28" s="1" t="str">
         <f t="array" aca="1" ref="B28" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A27)))&amp;""</f>
-        <v>小美</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -11854,7 +12272,7 @@
       </c>
       <c r="B29" s="1" t="str">
         <f t="array" aca="1" ref="B29" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A28)))&amp;""</f>
-        <v>珠仙</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -11863,7 +12281,7 @@
       </c>
       <c r="B30" s="1" t="str">
         <f t="array" aca="1" ref="B30" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A29)))&amp;""</f>
-        <v>毛毛</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -11872,7 +12290,7 @@
       </c>
       <c r="B31" s="1" t="str">
         <f t="array" aca="1" ref="B31" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A30)))&amp;""</f>
-        <v>利清</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -11881,7 +12299,7 @@
       </c>
       <c r="B32" s="1" t="str">
         <f t="array" aca="1" ref="B32" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A31)))&amp;""</f>
-        <v>秀英</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -11890,7 +12308,7 @@
       </c>
       <c r="B33" s="1" t="str">
         <f t="array" aca="1" ref="B33" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A32)))&amp;""</f>
-        <v>范卫群</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -11899,7 +12317,7 @@
       </c>
       <c r="B34" s="1" t="str">
         <f t="array" aca="1" ref="B34" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A33)))&amp;""</f>
-        <v>美娟</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -11908,7 +12326,7 @@
       </c>
       <c r="B35" s="1" t="str">
         <f t="array" aca="1" ref="B35" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A34)))&amp;""</f>
-        <v>陆琴仙</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -11917,7 +12335,7 @@
       </c>
       <c r="B36" s="1" t="str">
         <f t="array" aca="1" ref="B36" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A35)))&amp;""</f>
-        <v>王玲芬</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -11926,7 +12344,7 @@
       </c>
       <c r="B37" s="1" t="str">
         <f t="array" aca="1" ref="B37" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A36)))&amp;""</f>
-        <v>尤利仙</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -11935,7 +12353,7 @@
       </c>
       <c r="B38" s="1" t="str">
         <f t="array" aca="1" ref="B38" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A37)))&amp;""</f>
-        <v>李腊春</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -11944,7 +12362,7 @@
       </c>
       <c r="B39" s="1" t="str">
         <f t="array" aca="1" ref="B39" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A38)))&amp;""</f>
-        <v>张娟月</v>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -11953,7 +12371,7 @@
       </c>
       <c r="B40" s="1" t="str">
         <f t="array" aca="1" ref="B40" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A39)))&amp;""</f>
-        <v>小美</v>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -11962,7 +12380,7 @@
       </c>
       <c r="B41" s="1" t="str">
         <f t="array" aca="1" ref="B41" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A40)))&amp;""</f>
-        <v>建芬</v>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -11971,7 +12389,7 @@
       </c>
       <c r="B42" s="1" t="str">
         <f t="array" aca="1" ref="B42" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A41)))&amp;""</f>
-        <v>谈雪娥</v>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">

--- a/袜子流水表V2.xlsx
+++ b/袜子流水表V2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="372">
   <si>
     <t>总金额</t>
   </si>
@@ -1632,6 +1632,34 @@
   </si>
   <si>
     <t>00995016</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995017</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995018</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995019</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995021</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995020</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2040,7 +2068,7 @@
   <dimension ref="A1:K837"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I147" sqref="I147"/>
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2064,14 +2092,14 @@
       </c>
       <c r="B1" s="8">
         <f>SUBTOTAL(9,J:J)</f>
-        <v>18104.499999999996</v>
+        <v>18855.099999999995</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8">
         <f>SUBTOTAL(9,H:H)</f>
-        <v>31911</v>
+        <v>33221</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -4836,13 +4864,18 @@
       <c r="F90" s="18" t="s">
         <v>217</v>
       </c>
+      <c r="G90" s="13" t="s">
+        <v>363</v>
+      </c>
       <c r="H90" s="13">
-        <v>250</v>
-      </c>
-      <c r="I90" s="18"/>
+        <v>458</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>366</v>
+      </c>
       <c r="J90" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B90,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H90="",0,H90)),1)</f>
-        <v>152.5</v>
+        <v>279.3</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -6087,10 +6120,13 @@
       <c r="F129" s="18" t="s">
         <v>305</v>
       </c>
+      <c r="H129" s="13">
+        <v>390</v>
+      </c>
       <c r="I129" s="18"/>
       <c r="J129" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B129,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H129="",0,H129)),1)</f>
-        <v>0</v>
+        <v>222.3</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -6143,10 +6179,18 @@
       <c r="F131" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="I131" s="18"/>
+      <c r="G131" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="H131" s="13">
+        <v>300</v>
+      </c>
+      <c r="I131" s="18" t="s">
+        <v>365</v>
+      </c>
       <c r="J131" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B131,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H131="",0,H131)),1)</f>
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -6470,7 +6514,19 @@
       <c r="F142" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="I142" s="18"/>
+      <c r="G142" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="H142" s="13">
+        <v>60</v>
+      </c>
+      <c r="I142" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="J142" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B142,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H142="",0,H142)),1)</f>
+        <v>34.200000000000003</v>
+      </c>
     </row>
     <row r="143" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
@@ -6491,7 +6547,19 @@
       <c r="F143" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="I143" s="18"/>
+      <c r="G143" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="H143" s="13">
+        <v>138</v>
+      </c>
+      <c r="I143" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="J143" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B143,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H143="",0,H143)),1)</f>
+        <v>78.599999999999994</v>
+      </c>
     </row>
     <row r="144" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
@@ -6692,10 +6760,18 @@
       <c r="F150" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="I150" s="18"/>
+      <c r="G150" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="H150" s="13">
+        <v>214</v>
+      </c>
+      <c r="I150" s="18" t="s">
+        <v>368</v>
+      </c>
       <c r="J150" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B150,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H150="",0,H150)),1)</f>
-        <v>0</v>
+        <v>117.7</v>
       </c>
     </row>
     <row r="151" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">

--- a/袜子流水表V2.xlsx
+++ b/袜子流水表V2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="姓名列表" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">放袜子流水表!$A$2:$J$158</definedName>
     <definedName name="姓名辅助">姓名列表!$B$2:$B$35</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="409">
   <si>
     <t>总金额</t>
   </si>
@@ -695,16 +695,6 @@
   </si>
   <si>
     <t>2018.11.12</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开票</t>
-    <rPh sb="0" eb="1">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>kai'piao</t>
-    </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1662,6 +1652,221 @@
     <t>00995020</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>2018.12.8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995022</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995023</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995024</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2918.12.11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995025</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995026</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995027</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995028</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00995029</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.16全年已结清</t>
+    <rPh sb="10" eb="11">
+      <t>quan'nian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.30全年已结清</t>
+    <rPh sb="10" eb="11">
+      <t>quan'nian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.31全年已结清</t>
+    <rPh sb="10" eb="11">
+      <t>quan'nian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.31全年已结清</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.1已结清</t>
+    <rPh sb="8" eb="9">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.1已结清(114)元</t>
+    <rPh sb="16" eb="17">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.4已结清</t>
+    <rPh sb="8" eb="9">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12.31已结清</t>
+    <rPh sb="10" eb="11">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.4已结清</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.6已结清</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.6已结清</t>
+    <rPh sb="8" eb="9">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.6已结清</t>
+    <rPh sb="8" eb="9">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.8已结清</t>
+    <rPh sb="8" eb="9">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.8已结清</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.12已结清</t>
+    <rPh sb="9" eb="10">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019.1.11已结清 </t>
+    <rPh sb="9" eb="10">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.12已结清</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.13已结清</t>
+    <rPh sb="9" eb="10">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.13已结清</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.21已结清</t>
+    <rPh sb="9" eb="10">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.20已结清</t>
+    <rPh sb="9" eb="10">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.25已结清</t>
+    <rPh sb="9" eb="10">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.24已结清</t>
+    <rPh sb="9" eb="10">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1.28已结清</t>
+    <rPh sb="9" eb="10">
+      <t>yi'jie'qing</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1671,7 +1876,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1715,6 +1920,59 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1733,10 +1991,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1781,6 +2041,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1794,8 +2068,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2065,10 +2341,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K837"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2083,33 +2360,35 @@
     <col min="8" max="8" width="16.6640625" style="14" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8">
         <f>SUBTOTAL(9,J:J)</f>
-        <v>18855.099999999995</v>
+        <v>580</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8">
         <f>SUBTOTAL(9,H:H)</f>
-        <v>33221</v>
+        <v>1015</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8">
         <f>SUBTOTAL(9,E:E)</f>
-        <v>35661</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1092</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -2123,7 +2402,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>7</v>
@@ -2140,8 +2419,9 @@
       <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
@@ -2149,7 +2429,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>14</v>
@@ -2169,8 +2449,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B3,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H3="",0,H3)),1)</f>
         <v>51.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="25" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
@@ -2201,7 +2484,7 @@
         <v>268.89999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
@@ -2229,8 +2512,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B5,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H5="",0,H5)),1)</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
@@ -2259,7 +2545,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
@@ -2289,8 +2575,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B7,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H7="",0,H7)),1)</f>
         <v>150.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
@@ -2318,8 +2607,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B8,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H8="",0,H8)),1)</f>
         <v>170.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -2347,8 +2639,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B9,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H9="",0,H9)),1)</f>
         <v>165</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>137</v>
       </c>
@@ -2368,7 +2663,7 @@
         <v>138</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H10" s="13">
         <v>200</v>
@@ -2379,7 +2674,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -2409,8 +2704,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B11,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H11="",0,H11)),1)</f>
         <v>158.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>55</v>
       </c>
@@ -2428,7 +2726,7 @@
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H12" s="13">
         <v>500</v>
@@ -2438,8 +2736,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B12,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H12="",0,H12)),1)</f>
         <v>275</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="24" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
@@ -2457,40 +2758,43 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H13" s="13">
         <v>329</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J13" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B13,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H13="",0,H13)),1)</f>
         <v>200.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B14" s="13">
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E14" s="13">
         <v>166</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H14" s="13">
         <v>166</v>
@@ -2501,7 +2805,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>39</v>
       </c>
@@ -2530,7 +2834,7 @@
         <v>113.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>36</v>
       </c>
@@ -2559,7 +2863,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>36</v>
       </c>
@@ -2590,7 +2894,7 @@
         <v>207.9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>42</v>
       </c>
@@ -2620,10 +2924,13 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B18,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H18="",0,H18)),1)</f>
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" s="13">
         <v>12</v>
@@ -2632,16 +2939,16 @@
         <v>99</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="13">
         <v>200</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H19" s="13">
         <v>200</v>
@@ -2652,7 +2959,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>45</v>
       </c>
@@ -2682,8 +2989,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B20,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H20="",0,H20)),1)</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="24" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>64</v>
       </c>
@@ -2713,8 +3023,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B21,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H21="",0,H21)),1)</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="24" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>101</v>
       </c>
@@ -2725,29 +3038,29 @@
         <v>115</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22" s="13">
         <v>245</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H22" s="13">
         <v>244</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J22" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B22,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H22="",0,H22)),1)</f>
         <v>134.19999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>50</v>
       </c>
@@ -2768,14 +3081,14 @@
         <v>160</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J23" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B23,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H23="",0,H23)),1)</f>
         <v>94.4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>149</v>
       </c>
@@ -2795,7 +3108,7 @@
         <v>138</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H24" s="13">
         <v>98</v>
@@ -2805,8 +3118,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B24,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H24="",0,H24)),1)</f>
         <v>53.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>92</v>
       </c>
@@ -2836,8 +3152,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B25,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H25="",0,H25)),1)</f>
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
@@ -2855,20 +3174,20 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H26" s="13">
         <v>360</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J26" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B26,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H26="",0,H26)),1)</f>
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>55</v>
       </c>
@@ -2897,7 +3216,7 @@
         <v>220.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>53</v>
       </c>
@@ -2925,8 +3244,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B28,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H28="",0,H28)),1)</f>
         <v>220</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="24" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>95</v>
       </c>
@@ -2944,7 +3266,7 @@
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H29" s="13">
         <v>172</v>
@@ -2955,7 +3277,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>58</v>
       </c>
@@ -2983,8 +3305,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B30,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H30="",0,H30)),1)</f>
         <v>125.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="24" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>51</v>
       </c>
@@ -3012,8 +3337,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B31,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H31="",0,H31)),1)</f>
         <v>275</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>106</v>
       </c>
@@ -3042,7 +3370,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>61</v>
       </c>
@@ -3070,8 +3398,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B33,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H33="",0,H33)),1)</f>
         <v>94.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="24" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>63</v>
       </c>
@@ -3100,7 +3431,7 @@
         <v>194.7</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>145</v>
       </c>
@@ -3108,19 +3439,19 @@
         <v>12</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E35" s="13">
         <v>140</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H35" s="13">
         <v>140</v>
@@ -3131,7 +3462,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3490,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B36,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H36="",0,H36)),1)</f>
         <v>238.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="24" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>65</v>
       </c>
@@ -3191,7 +3525,7 @@
         <v>178.1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>67</v>
       </c>
@@ -3211,7 +3545,7 @@
         <v>70</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H38" s="13">
         <v>281</v>
@@ -3221,8 +3555,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B38,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H38="",0,H38)),1)</f>
         <v>165.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K38" s="24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>28</v>
       </c>
@@ -3255,7 +3592,7 @@
         <v>185.8</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>72</v>
       </c>
@@ -3288,7 +3625,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>145</v>
       </c>
@@ -3299,14 +3636,14 @@
         <v>93</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E41" s="13">
         <v>65</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H41" s="13">
         <v>63</v>
@@ -3317,7 +3654,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>28</v>
       </c>
@@ -3346,7 +3683,7 @@
         <v>273.3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>98</v>
       </c>
@@ -3379,7 +3716,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>101</v>
       </c>
@@ -3399,20 +3736,20 @@
         <v>100</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H44" s="13">
         <v>200</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J44" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B44,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H44="",0,H44)),1)</f>
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>104</v>
       </c>
@@ -3432,20 +3769,20 @@
         <v>100</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H45" s="13">
         <v>462</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J45" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B45,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H45="",0,H45)),1)</f>
         <v>272.5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>106</v>
       </c>
@@ -3463,7 +3800,7 @@
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H46" s="13">
         <v>157</v>
@@ -3474,7 +3811,7 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>110</v>
       </c>
@@ -3492,20 +3829,20 @@
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H47" s="13">
         <v>289</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J47" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B47,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H47="",0,H47)),1)</f>
         <v>158.9</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>111</v>
       </c>
@@ -3536,7 +3873,7 @@
         <v>232.4</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>106</v>
       </c>
@@ -3554,7 +3891,7 @@
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H49" s="13">
         <v>10</v>
@@ -3565,7 +3902,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>28</v>
       </c>
@@ -3594,7 +3931,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>40</v>
       </c>
@@ -3623,7 +3960,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>118</v>
       </c>
@@ -3643,20 +3980,23 @@
         <v>139</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H52" s="13">
         <v>359</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J52" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B52,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H52="",0,H52)),1)</f>
         <v>211.8</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K52" s="24" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>124</v>
       </c>
@@ -3676,7 +4016,7 @@
         <v>129</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H53" s="13">
         <v>495</v>
@@ -3687,7 +4027,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>130</v>
       </c>
@@ -3707,20 +4047,20 @@
         <v>129</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H54" s="13">
         <v>355</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J54" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B54,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H54="",0,H54)),1)</f>
         <v>216.5</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>92</v>
       </c>
@@ -3740,20 +4080,20 @@
         <v>131</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H55" s="13">
         <v>395</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J55" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B55,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H55="",0,H55)),1)</f>
         <v>217.2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>142</v>
       </c>
@@ -3773,20 +4113,20 @@
         <v>131</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H56" s="13">
         <v>172</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J56" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B56,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H56="",0,H56)),1)</f>
         <v>94.6</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>40</v>
       </c>
@@ -3817,7 +4157,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>98</v>
       </c>
@@ -3850,7 +4190,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>145</v>
       </c>
@@ -3879,7 +4219,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>147</v>
       </c>
@@ -3909,11 +4249,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B60,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H60="",0,H60)),1)</f>
         <v>28.5</v>
       </c>
-      <c r="K60" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K60" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>113</v>
       </c>
@@ -3943,8 +4283,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B61,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H61="",0,H61)),1)</f>
         <v>292.60000000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K61" s="24" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>45</v>
       </c>
@@ -3973,7 +4316,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>163</v>
       </c>
@@ -3993,20 +4336,20 @@
         <v>100</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H63" s="13">
         <v>370</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J63" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B63,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H63="",0,H63)),1)</f>
         <v>210.9</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>164</v>
       </c>
@@ -4026,22 +4369,22 @@
         <v>129</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H64" s="13">
         <v>150</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J64" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B64,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H64="",0,H64)),1)</f>
         <v>85.5</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B65" s="13">
         <v>12</v>
@@ -4050,29 +4393,29 @@
         <v>115</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E65" s="13">
         <v>100</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H65" s="13">
         <v>100</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J65" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B65,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H65="",0,H65)),1)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>106</v>
       </c>
@@ -4100,7 +4443,7 @@
         <v>131.1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>169</v>
       </c>
@@ -4120,20 +4463,20 @@
         <v>168</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H67" s="13">
         <v>500</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J67" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B67,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H67="",0,H67)),1)</f>
         <v>285</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>171</v>
       </c>
@@ -4153,7 +4496,7 @@
         <v>156</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H68" s="13">
         <v>50</v>
@@ -4163,8 +4506,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B68,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H68="",0,H68)),1)</f>
         <v>28.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K68" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>172</v>
       </c>
@@ -4184,20 +4530,20 @@
         <v>156</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H69" s="13">
         <v>372</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J69" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B69,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H69="",0,H69)),1)</f>
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>173</v>
       </c>
@@ -4217,20 +4563,20 @@
         <v>168</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H70" s="13">
         <v>350</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J70" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B70,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H70="",0,H70)),1)</f>
         <v>213.5</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>86</v>
       </c>
@@ -4250,28 +4596,31 @@
         <v>156</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H71" s="13">
         <v>200</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J71" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B71,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H71="",0,H71)),1)</f>
         <v>118</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K71" s="24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B72" s="13">
         <v>12</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>96</v>
@@ -4280,25 +4629,25 @@
         <v>320</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H72" s="13">
         <v>316</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J72" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B72,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H72="",0,H72)),1)</f>
         <v>173.8</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B73" s="13">
         <v>14</v>
@@ -4307,7 +4656,7 @@
         <v>115</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E73" s="13">
         <v>300</v>
@@ -4316,40 +4665,40 @@
         <v>156</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H73" s="13">
         <v>301</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J73" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B73,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H73="",0,H73)),1)</f>
         <v>177.5</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B74" s="13">
         <v>13</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E74" s="13">
         <v>342</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H74" s="13">
         <v>341</v>
@@ -4359,8 +4708,9 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B74,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H74="",0,H74)),1)</f>
         <v>194.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K74" s="24"/>
+    </row>
+    <row r="75" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>153</v>
       </c>
@@ -4368,32 +4718,32 @@
         <v>13</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E75" s="13">
         <v>200</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H75" s="13">
         <v>197</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J75" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B75,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H75="",0,H75)),1)</f>
         <v>112.2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>84</v>
       </c>
@@ -4401,32 +4751,35 @@
         <v>13</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E76" s="13">
         <v>160</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H76" s="13">
         <v>160</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J76" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B76,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H76="",0,H76)),1)</f>
         <v>91.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K76" s="24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>95</v>
       </c>
@@ -4434,19 +4787,19 @@
         <v>13</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E77" s="13">
         <v>250</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H77" s="13">
         <v>249</v>
@@ -4457,9 +4810,9 @@
         <v>141.9</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B78" s="13">
         <v>13</v>
@@ -4468,16 +4821,16 @@
         <v>159</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E78" s="13">
         <v>200</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H78" s="13">
         <v>200</v>
@@ -4487,8 +4840,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B78,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H78="",0,H78)),1)</f>
         <v>114</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K78" s="24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>153</v>
       </c>
@@ -4508,20 +4864,20 @@
         <v>138</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H79" s="13">
         <v>150</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J79" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B79,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H79="",0,H79)),1)</f>
         <v>82.5</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>153</v>
       </c>
@@ -4532,29 +4888,29 @@
         <v>115</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E80" s="13">
         <v>100</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H80" s="13">
         <v>100</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J80" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B80,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H80="",0,H80)),1)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>79</v>
       </c>
@@ -4565,31 +4921,31 @@
         <v>158</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E81" s="13">
         <v>400</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H81" s="13">
         <v>400</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J81" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B81,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H81="",0,H81)),1)</f>
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B82" s="13">
         <v>11</v>
@@ -4598,31 +4954,34 @@
         <v>158</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E82" s="13">
         <v>200</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H82" s="13">
         <v>200</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J82" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B82,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H82="",0,H82)),1)</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K82" s="24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B83" s="13">
         <v>11</v>
@@ -4631,31 +4990,31 @@
         <v>158</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E83" s="13">
         <v>398</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H83" s="13">
         <v>390</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J83" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B83,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H83="",0,H83)),1)</f>
         <v>214.5</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B84" s="13">
         <v>11</v>
@@ -4664,29 +5023,29 @@
         <v>158</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E84" s="13">
         <v>200</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H84" s="13">
         <v>200</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J84" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B84,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H84="",0,H84)),1)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>12</v>
       </c>
@@ -4694,34 +5053,34 @@
         <v>12</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E85" s="13">
         <v>220</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H85" s="13">
         <v>220</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J85" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B85,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H85="",0,H85)),1)</f>
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B86" s="13">
         <v>11</v>
@@ -4730,29 +5089,29 @@
         <v>133</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E86" s="13">
         <v>30</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H86" s="13">
         <v>30</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J86" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B86,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H86="",0,H86)),1)</f>
         <v>16.5</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>58</v>
       </c>
@@ -4781,9 +5140,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B88" s="13">
         <v>12</v>
@@ -4792,29 +5151,29 @@
         <v>93</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E88" s="13">
         <v>50</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H88" s="13">
         <v>50</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J88" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B88,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H88="",0,H88)),1)</f>
         <v>27.5</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>145</v>
       </c>
@@ -4822,19 +5181,19 @@
         <v>11</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E89" s="13">
         <v>100</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H89" s="13">
         <v>100</v>
@@ -4845,9 +5204,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B90" s="13">
         <v>15</v>
@@ -4856,29 +5215,29 @@
         <v>115</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E90" s="13">
         <v>550</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H90" s="13">
         <v>458</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J90" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B90,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H90="",0,H90)),1)</f>
         <v>279.3</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>52</v>
       </c>
@@ -4909,7 +5268,7 @@
         <v>163.30000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>145</v>
       </c>
@@ -4920,16 +5279,16 @@
         <v>159</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E92" s="13">
         <v>10</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H92" s="13">
         <v>10</v>
@@ -4940,9 +5299,9 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B93" s="13">
         <v>12</v>
@@ -4951,34 +5310,34 @@
         <v>93</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E93" s="13">
         <v>310</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H93" s="13">
         <v>310</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J93" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B93,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H93="",0,H93)),1)</f>
         <v>170.5</v>
       </c>
       <c r="K93" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B94" s="13">
         <v>12</v>
@@ -4987,31 +5346,31 @@
         <v>122</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E94" s="13">
         <v>200</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H94" s="13">
         <v>200</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J94" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B94,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H94="",0,H94)),1)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B95" s="13">
         <v>14</v>
@@ -5020,29 +5379,29 @@
         <v>158</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E95" s="13">
         <v>300</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H95" s="13">
         <v>300</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J95" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B95,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H95="",0,H95)),1)</f>
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>163</v>
       </c>
@@ -5053,29 +5412,29 @@
         <v>117</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E96" s="13">
         <v>483</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H96" s="13">
         <v>485</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J96" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B96,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H96="",0,H96)),1)</f>
         <v>276.39999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>59</v>
       </c>
@@ -5103,8 +5462,11 @@
         <f>ROUNDDOWN(CHOOSE(MATCH(B97,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H97="",0,H97)),1)</f>
         <v>266.2</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K97" s="24" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>47</v>
       </c>
@@ -5133,7 +5495,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>47</v>
       </c>
@@ -5164,9 +5526,9 @@
         <v>162.80000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B100" s="13">
         <v>11</v>
@@ -5175,16 +5537,16 @@
         <v>133</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E100" s="13">
         <v>28</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H100" s="13">
         <v>28</v>
@@ -5195,7 +5557,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>111</v>
       </c>
@@ -5203,85 +5565,85 @@
         <v>14</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E101" s="13">
         <v>440</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H101" s="13">
         <v>437</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J101" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B101,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H101="",0,H101)),1)</f>
         <v>257.8</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B102" s="13">
         <v>13</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E102" s="13">
         <v>240</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H102" s="13">
         <v>240</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J102" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B102,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H102="",0,H102)),1)</f>
         <v>136.80000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B103" s="13">
         <v>13</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E103" s="13">
         <v>200</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H103" s="13">
         <v>193</v>
@@ -5292,7 +5654,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>98</v>
       </c>
@@ -5300,98 +5662,98 @@
         <v>13</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E104" s="13">
         <v>200</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H104" s="13">
         <v>200</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J104" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B104,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H104="",0,H104)),1)</f>
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B105" s="13">
         <v>12</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E105" s="13">
         <v>160</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H105" s="13">
         <v>158</v>
       </c>
       <c r="I105" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J105" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B105,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H105="",0,H105)),1)</f>
         <v>86.9</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B106" s="13">
         <v>12</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E106" s="13">
         <v>200</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H106" s="13">
         <v>200</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J106" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B106,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H106="",0,H106)),1)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>101</v>
       </c>
@@ -5402,31 +5764,31 @@
         <v>93</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E107" s="13">
         <v>160</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H107" s="13">
         <v>160</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J107" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B107,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H107="",0,H107)),1)</f>
         <v>94.4</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B108" s="13">
         <v>14</v>
@@ -5435,16 +5797,16 @@
         <v>93</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E108" s="13">
         <v>188</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H108" s="13">
         <v>185</v>
@@ -5455,7 +5817,7 @@
         <v>109.1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>81</v>
       </c>
@@ -5463,34 +5825,34 @@
         <v>14</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E109" s="13">
         <v>200</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H109" s="13">
         <v>200</v>
       </c>
       <c r="I109" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J109" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B109,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H109="",0,H109)),1)</f>
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B110" s="13">
         <v>14</v>
@@ -5499,29 +5861,29 @@
         <v>115</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E110" s="13">
         <v>161</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H110" s="13">
         <v>161</v>
       </c>
       <c r="I110" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J110" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B110,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H110="",0,H110)),1)</f>
         <v>94.9</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>104</v>
       </c>
@@ -5529,32 +5891,32 @@
         <v>13</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E111" s="13">
         <v>235</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H111" s="13">
         <v>235</v>
       </c>
       <c r="I111" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J111" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B111,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H111="",0,H111)),1)</f>
         <v>133.9</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>104</v>
       </c>
@@ -5565,62 +5927,62 @@
         <v>158</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E112" s="13">
         <v>60</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H112" s="13">
         <v>60</v>
       </c>
       <c r="I112" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J112" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B112,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H112="",0,H112)),1)</f>
         <v>35.4</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B113" s="13">
         <v>12</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E113" s="13">
         <v>450</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H113" s="13">
         <v>444</v>
       </c>
       <c r="I113" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J113" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B113,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H113="",0,H113)),1)</f>
         <v>244.2</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>172</v>
       </c>
@@ -5631,29 +5993,29 @@
         <v>115</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E114" s="13">
         <v>362</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H114" s="13">
         <v>362</v>
       </c>
       <c r="I114" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J114" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B114,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H114="",0,H114)),1)</f>
         <v>213.5</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>169</v>
       </c>
@@ -5661,32 +6023,32 @@
         <v>13</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E115" s="13">
         <v>100</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H115" s="13">
         <v>100</v>
       </c>
       <c r="I115" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J115" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B115,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H115="",0,H115)),1)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>173</v>
       </c>
@@ -5694,90 +6056,98 @@
         <v>14</v>
       </c>
       <c r="C116" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D116" s="13" t="s">
         <v>282</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>283</v>
       </c>
       <c r="E116" s="13">
         <v>200</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H116" s="13">
         <v>199</v>
       </c>
       <c r="I116" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J116" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B116,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H116="",0,H116)),1)</f>
         <v>117.4</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B117" s="13">
         <v>13</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E117" s="13">
         <v>170</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H117" s="13">
         <v>170</v>
       </c>
       <c r="I117" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J117" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B117,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H117="",0,H117)),1)</f>
         <v>96.9</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B118" s="13">
         <v>13</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E118" s="13">
         <v>220</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="I118" s="18"/>
+        <v>287</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H118" s="13">
+        <v>220</v>
+      </c>
+      <c r="I118" s="18" t="s">
+        <v>379</v>
+      </c>
       <c r="J118" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B118,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H118="",0,H118)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>130</v>
       </c>
@@ -5785,32 +6155,32 @@
         <v>14</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E119" s="13">
         <v>300</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H119" s="13">
         <v>301</v>
       </c>
       <c r="I119" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J119" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B119,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H119="",0,H119)),1)</f>
         <v>177.5</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
         <v>145</v>
       </c>
@@ -5818,19 +6188,19 @@
         <v>14</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E120" s="13">
         <v>200</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H120" s="13">
         <v>198</v>
@@ -5841,40 +6211,40 @@
         <v>116.8</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B121" s="13">
         <v>12</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E121" s="13">
         <v>360</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H121" s="13">
         <v>360</v>
       </c>
       <c r="I121" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J121" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B121,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H121="",0,H121)),1)</f>
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>145</v>
       </c>
@@ -5882,19 +6252,19 @@
         <v>14</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E122" s="13">
         <v>20</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H122" s="13">
         <v>20</v>
@@ -5905,7 +6275,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>111</v>
       </c>
@@ -5913,52 +6283,52 @@
         <v>14</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E123" s="13">
         <v>160</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H123" s="13">
         <v>160</v>
       </c>
       <c r="I123" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J123" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B123,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H123="",0,H123)),1)</f>
         <v>94.4</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B124" s="13">
         <v>12</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E124" s="13">
         <v>200</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H124" s="13">
         <v>199</v>
@@ -5969,73 +6339,73 @@
         <v>109.4</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B125" s="13">
         <v>12</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E125" s="13">
         <v>60</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H125" s="13">
         <v>60</v>
       </c>
       <c r="I125" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J125" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B125,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H125="",0,H125)),1)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B126" s="13">
         <v>14</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E126" s="13">
         <v>90</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H126" s="13">
         <v>90</v>
       </c>
       <c r="I126" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J126" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B126,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H126="",0,H126)),1)</f>
         <v>53.1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>111</v>
       </c>
@@ -6043,93 +6413,101 @@
         <v>13</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E127" s="13">
         <v>360</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H127" s="13">
         <v>360</v>
       </c>
       <c r="I127" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J127" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B127,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H127="",0,H127)),1)</f>
         <v>205.2</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B128" s="13">
         <v>13</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E128" s="13">
         <v>50</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H128" s="13">
         <v>50</v>
       </c>
       <c r="I128" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J128" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B128,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H128="",0,H128)),1)</f>
         <v>28.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K128" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B129" s="13">
         <v>13</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E129" s="13">
         <v>440</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>373</v>
       </c>
       <c r="H129" s="13">
-        <v>390</v>
-      </c>
-      <c r="I129" s="18"/>
+        <v>440</v>
+      </c>
+      <c r="I129" s="18" t="s">
+        <v>374</v>
+      </c>
       <c r="J129" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B129,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H129="",0,H129)),1)</f>
-        <v>222.3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>250.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>106</v>
       </c>
@@ -6137,19 +6515,19 @@
         <v>12</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E130" s="13">
         <v>58</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H130" s="13">
         <v>58</v>
@@ -6160,40 +6538,40 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B131" s="13">
         <v>13</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E131" s="13">
         <v>300</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H131" s="13">
         <v>300</v>
       </c>
       <c r="I131" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J131" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B131,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H131="",0,H131)),1)</f>
         <v>171</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
         <v>95</v>
       </c>
@@ -6204,21 +6582,27 @@
         <v>115</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E132" s="13">
         <v>280</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="H132" s="13">
+        <v>276</v>
       </c>
       <c r="I132" s="18"/>
       <c r="J132" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B132,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H132="",0,H132)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151.80000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>104</v>
       </c>
@@ -6226,34 +6610,34 @@
         <v>11</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E133" s="13">
         <v>480</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H133" s="13">
         <v>480</v>
       </c>
       <c r="I133" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J133" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B133,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H133="",0,H133)),1)</f>
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B134" s="13">
         <v>12</v>
@@ -6262,87 +6646,95 @@
         <v>115</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E134" s="13">
         <v>200</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H134" s="13">
         <v>200</v>
       </c>
       <c r="I134" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J134" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B134,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H134="",0,H134)),1)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B135" s="13">
         <v>12</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E135" s="13">
         <v>200</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="I135" s="18"/>
+        <v>326</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="H135" s="13">
+        <v>199</v>
+      </c>
+      <c r="I135" s="18" t="s">
+        <v>383</v>
+      </c>
       <c r="J135" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B135,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H135="",0,H135)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B136" s="13">
         <v>13</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E136" s="13">
         <v>120</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H136" s="13">
         <v>120</v>
       </c>
       <c r="I136" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J136" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B136,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H136="",0,H136)),1)</f>
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="137" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>106</v>
       </c>
@@ -6350,19 +6742,19 @@
         <v>13</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E137" s="13">
         <v>109</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H137" s="13">
         <v>109</v>
@@ -6373,93 +6765,94 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B138" s="13">
         <v>14</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E138" s="13">
         <v>400</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H138" s="13">
         <v>401</v>
       </c>
       <c r="I138" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J138" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B138,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H138="",0,H138)),1)</f>
         <v>236.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K138" s="22"/>
+    </row>
+    <row r="139" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B139" s="13">
         <v>12</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E139" s="13">
         <v>100</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H139" s="13">
         <v>100</v>
       </c>
       <c r="I139" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J139" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B139,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H139="",0,H139)),1)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B140" s="13">
         <v>12</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E140" s="13">
         <v>200</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H140" s="13">
         <v>200</v>
@@ -6470,184 +6863,192 @@
         <v>110</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B141" s="13">
         <v>13</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E141" s="13">
         <v>200</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="I141" s="18"/>
+        <v>326</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H141" s="13">
+        <v>200</v>
+      </c>
+      <c r="I141" s="18" t="s">
+        <v>376</v>
+      </c>
       <c r="J141" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B141,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H141="",0,H141)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B142" s="13">
         <v>13</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E142" s="13">
         <v>60</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H142" s="13">
         <v>60</v>
       </c>
       <c r="I142" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J142" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B142,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H142="",0,H142)),1)</f>
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B143" s="13">
         <v>13</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E143" s="13">
         <v>140</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H143" s="13">
         <v>138</v>
       </c>
       <c r="I143" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J143" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B143,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H143="",0,H143)),1)</f>
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B144" s="13">
         <v>12</v>
       </c>
       <c r="C144" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D144" s="13" t="s">
         <v>335</v>
-      </c>
-      <c r="D144" s="13" t="s">
-        <v>336</v>
       </c>
       <c r="E144" s="13">
         <v>100</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H144" s="13">
         <v>100</v>
       </c>
       <c r="I144" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J144" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B144,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H144="",0,H144)),1)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="145" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B145" s="13">
         <v>13</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E145" s="13">
         <v>20</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H145" s="13">
         <v>20</v>
       </c>
       <c r="I145" s="18" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J145" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B145,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H145="",0,H145)),1)</f>
         <v>11.4</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B146" s="13">
         <v>13</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E146" s="13">
         <v>140</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H146" s="13">
         <v>140</v>
@@ -6658,9 +7059,9 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="147" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B147" s="13">
         <v>11</v>
@@ -6669,29 +7070,29 @@
         <v>99</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E147" s="13">
         <v>50</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H147" s="13">
         <v>50</v>
       </c>
       <c r="I147" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J147" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B147,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H147="",0,H147)),1)</f>
         <v>27.5</v>
       </c>
     </row>
-    <row r="148" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
         <v>163</v>
       </c>
@@ -6702,23 +7103,31 @@
         <v>99</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E148" s="13">
         <v>200</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="I148" s="18"/>
+        <v>342</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H148" s="13">
+        <v>200</v>
+      </c>
+      <c r="I148" s="18" t="s">
+        <v>380</v>
+      </c>
       <c r="J148" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B148,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H148="",0,H148)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B149" s="13">
         <v>13</v>
@@ -6727,23 +7136,29 @@
         <v>115</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E149" s="13">
         <v>200</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
+      </c>
+      <c r="G149" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H149" s="13">
+        <v>199</v>
       </c>
       <c r="I149" s="18"/>
       <c r="J149" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B149,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H149="",0,H149)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B150" s="13">
         <v>11</v>
@@ -6752,29 +7167,29 @@
         <v>99</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E150" s="13">
         <v>214</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H150" s="13">
         <v>214</v>
       </c>
       <c r="I150" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J150" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B150,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H150="",0,H150)),1)</f>
         <v>117.7</v>
       </c>
     </row>
-    <row r="151" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>111</v>
       </c>
@@ -6785,98 +7200,122 @@
         <v>115</v>
       </c>
       <c r="D151" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E151" s="13">
         <v>240</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H151" s="13">
         <v>240</v>
       </c>
       <c r="I151" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J151" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B151,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H151="",0,H151)),1)</f>
         <v>136.80000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B152" s="13">
         <v>11</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E152" s="13">
         <v>200</v>
       </c>
       <c r="F152" s="18"/>
-      <c r="I152" s="18"/>
+      <c r="G152" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="H152" s="13">
+        <v>200</v>
+      </c>
+      <c r="I152" s="18" t="s">
+        <v>372</v>
+      </c>
       <c r="J152" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B152,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H152="",0,H152)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B153" s="13">
         <v>11</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E153" s="13">
         <v>127</v>
       </c>
       <c r="F153" s="18"/>
-      <c r="I153" s="18"/>
+      <c r="G153" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="H153" s="13">
+        <v>128</v>
+      </c>
+      <c r="I153" s="18" t="s">
+        <v>378</v>
+      </c>
       <c r="J153" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B153,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H153="",0,H153)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B154" s="13">
         <v>11</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E154" s="13">
         <v>100</v>
       </c>
       <c r="F154" s="18"/>
-      <c r="I154" s="18"/>
+      <c r="G154" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="H154" s="13">
+        <v>100</v>
+      </c>
+      <c r="I154" s="18" t="s">
+        <v>382</v>
+      </c>
       <c r="J154" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B154,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H154="",0,H154)),1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>106</v>
       </c>
@@ -6887,16 +7326,16 @@
         <v>99</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E155" s="13">
         <v>200</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H155" s="13">
         <v>194</v>
@@ -6907,7 +7346,7 @@
         <v>106.7</v>
       </c>
     </row>
-    <row r="156" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
         <v>106</v>
       </c>
@@ -6918,7 +7357,7 @@
         <v>159</v>
       </c>
       <c r="D156" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E156" s="13">
         <v>30</v>
@@ -6927,7 +7366,7 @@
         <v>156</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H156" s="13">
         <v>30</v>
@@ -6938,41 +7377,65 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B157" s="13">
         <v>11</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D157" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E157" s="13">
         <v>50</v>
       </c>
       <c r="F157" s="18"/>
       <c r="G157" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H157" s="13">
         <v>50</v>
       </c>
       <c r="I157" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J157" s="12">
         <f>ROUNDDOWN(CHOOSE(MATCH(B157,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H157="",0,H157)),1)</f>
         <v>27.5</v>
       </c>
     </row>
-    <row r="158" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" s="13" customFormat="1" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B158" s="13">
+        <v>12</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E158" s="13">
+        <v>129</v>
+      </c>
       <c r="F158" s="18"/>
+      <c r="G158" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="H158" s="20">
+        <v>129</v>
+      </c>
       <c r="I158" s="18"/>
-      <c r="J158" s="12"/>
+      <c r="J158" s="12">
+        <f>ROUNDDOWN(CHOOSE(MATCH(B158,{11,12,13,14,15,16,17}),0.55,0.55,0.57,0.59,0.61,0.63,0.65)*(IF(H158="",0,H158)),1)</f>
+        <v>70.900000000000006</v>
+      </c>
     </row>
     <row r="159" spans="1:10" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F159" s="18"/>
@@ -9695,7 +10158,12 @@
       <c r="I837" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J157">
+  <autoFilter ref="A2:J158">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="小艳"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A5:J99">
       <sortCondition ref="A2:A101"/>
     </sortState>
@@ -9720,8 +10188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F421"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9761,10 +10229,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="2">
@@ -9778,8 +10246,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="2">
         <v>14</v>
       </c>
@@ -9791,8 +10259,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="2">
         <v>17</v>
       </c>
@@ -9804,10 +10272,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="29" t="s">
         <v>121</v>
       </c>
       <c r="C6" s="2">
@@ -9821,8 +10289,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="2">
         <v>14</v>
       </c>
@@ -9834,8 +10302,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="2">
         <v>13</v>
       </c>
@@ -9847,10 +10315,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="26" t="s">
         <v>138</v>
       </c>
       <c r="C9" s="2">
@@ -9862,11 +10330,11 @@
       <c r="E9" s="2">
         <v>453</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="2">
         <v>15</v>
       </c>
@@ -9876,11 +10344,11 @@
       <c r="E10" s="2">
         <v>358</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="2">
         <v>14</v>
       </c>
@@ -9890,11 +10358,11 @@
       <c r="E11" s="2">
         <v>500</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="2">
         <v>13</v>
       </c>
@@ -9904,13 +10372,13 @@
       <c r="E12" s="2">
         <v>430</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="26" t="s">
         <v>131</v>
       </c>
       <c r="C13" s="2">
@@ -9924,8 +10392,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="2">
         <v>11</v>
       </c>
@@ -9937,10 +10405,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="26" t="s">
         <v>156</v>
       </c>
       <c r="C15" s="2">
@@ -9954,8 +10422,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="2">
         <v>14</v>
       </c>
@@ -9967,8 +10435,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="2">
         <v>13</v>
       </c>
@@ -9980,8 +10448,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="2">
         <v>13</v>
       </c>
@@ -9993,11 +10461,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>177</v>
+      <c r="B19" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="C19" s="2">
         <v>12</v>
@@ -10010,37 +10478,37 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="2">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E20" s="2">
         <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="2">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E21" s="2">
         <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>189</v>
+      <c r="A22" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>188</v>
       </c>
       <c r="C22" s="2">
         <v>12</v>
@@ -10053,8 +10521,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="2">
         <v>13</v>
       </c>
@@ -10066,11 +10534,11 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="26" t="s">
         <v>201</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>202</v>
       </c>
       <c r="C24" s="2">
         <v>11</v>
@@ -10083,8 +10551,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="2">
         <v>11</v>
       </c>
@@ -10096,8 +10564,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="2">
         <v>11</v>
       </c>
@@ -10109,11 +10577,11 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>217</v>
+      <c r="A27" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>216</v>
       </c>
       <c r="C27" s="2">
         <v>12</v>
@@ -10126,8 +10594,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="2">
         <v>12</v>
       </c>
@@ -10139,21 +10607,21 @@
       </c>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="2">
         <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E29" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="2">
         <v>14</v>
       </c>
@@ -10165,37 +10633,37 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="2">
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E31" s="2">
         <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="2">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E32" s="2">
         <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>237</v>
+      <c r="A33" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>236</v>
       </c>
       <c r="C33" s="2">
         <v>13</v>
@@ -10208,8 +10676,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="2">
         <v>12</v>
       </c>
@@ -10221,64 +10689,64 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>257</v>
+      <c r="A35" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>256</v>
       </c>
       <c r="C35" s="2">
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E35" s="2">
         <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="2">
         <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E36" s="2">
         <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="2">
         <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E37" s="2">
         <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="2">
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E38" s="2">
         <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="2">
         <v>14</v>
       </c>
@@ -10290,8 +10758,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="2">
         <v>14</v>
       </c>
@@ -10303,25 +10771,25 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>271</v>
+      <c r="A41" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>270</v>
       </c>
       <c r="C41" s="2">
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E41" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="2">
         <v>14</v>
       </c>
@@ -10333,163 +10801,163 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="2">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E43" s="2">
         <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="2">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E44" s="2">
         <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B45" s="26" t="s">
         <v>276</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>277</v>
       </c>
       <c r="C45" s="2">
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E45" s="2">
         <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="2">
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E46" s="2">
         <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="2">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E47" s="2">
         <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="2">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E48" s="2">
         <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>305</v>
+      <c r="A49" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>304</v>
       </c>
       <c r="C49" s="2">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E49" s="2">
         <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="2">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E50" s="2">
         <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="2">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E51" s="2">
         <v>360</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>318</v>
+      <c r="A52" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>317</v>
       </c>
       <c r="C52" s="2">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E52" s="2">
         <v>440</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="2">
         <v>11</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E53" s="2">
         <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="2">
         <v>12</v>
       </c>
@@ -10501,54 +10969,54 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="B55" s="26" t="s">
         <v>326</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>327</v>
       </c>
       <c r="C55" s="2">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E55" s="2">
         <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="2">
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E56" s="2">
         <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="2">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E57" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="B58" s="26" t="s">
         <v>342</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>343</v>
       </c>
       <c r="C58" s="2">
         <v>11</v>
@@ -10561,8 +11029,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="2">
         <v>13</v>
       </c>
@@ -10575,14 +11043,14 @@
     </row>
     <row r="60" spans="1:5" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="2">
         <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E60" s="2">
         <v>480</v>
@@ -12443,7 +12911,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="array" aca="1" ref="B40" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A39)))&amp;""</f>
@@ -12452,7 +12920,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="array" aca="1" ref="B41" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A40)))&amp;""</f>
@@ -12461,7 +12929,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="array" aca="1" ref="B42" ca="1">INDEX(A:A,SMALL(IF(ISNUMBER(FIND(CELL("contents"),A$2:A$6000)),ROW($2:$6000),4^8),ROW(A41)))&amp;""</f>
@@ -12470,18 +12938,18 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
